--- a/finetuning/it_datasets/qa_dataset/qa_it_el hamma_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_el hamma_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA64"/>
+  <dimension ref="A1:AB64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,12 +672,60 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a satisfying meal, check out L'etoile d'or located at VQJ4+RQR L'etoile d'or, P16, El Hamma. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/L%27%C3%A9toile+d%27or/data=!4m7!3m6!1s0x12559b2c49beb217:0xd51541cff836f59f!8m2!3d33.8821073!4d9.7568852!16s%2Fg%2F11nnmzdrb2!19sChIJF7K-SSybVRIRn_U2-M9BFdU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 576 220.</t>
+          <t>L'Etoile d'Or, located in El Hamma at coordinates (33.8833694, 9.7947312), is a reputable restaurant offering a delectable culinary experience. With a 4.2-star rating based on 15 reviews, it has gained a solid reputation among diners.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant with a wide range of dining options in El Hamma?</t>
+          <t>Day Plan:
+Morning: Explore the historic streets of El Hamma.
+Mid-Morning: Visit Café lounge Babali' Za for a traditional tea experience.
+Midday: Try local cuisine at 30.8 creperie, a popular spot for both locals and tourists.
+Afternoon: Visit Hammam sidi swiid, a highly-rated bar in the area.
+Evening: Engage in outdoor activities like hiking or biking at a nearby park or outdoor location.
+Night: Relax with a traditional massage at STATION THERMALE CHAIBI.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'Etoile d'Or, located in El Hamma at coordinates (33.8833694, 9.7947312), is a reputable restaurant offering a delectable culinary experience. With a 4.2-star rating based on 15 reviews, it has gained a solid reputation among diners.
+Café lounge Babali' Za is a tea room located in El Hamma, Tunisia. It is open 24 hours a day and offers a variety of teas and other beverages. The tea room is also a popular spot for locals to socialize and relax. It is rated 4.4 out of 5 stars on Google Maps and has received positive reviews from customers. Café lounge Babali' Za is located at Rue l'environnement proche station de louage, El Hamma 6020. The coordinates of the tea room are (33.8776496, 9.804123).
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+Café El Garabi is a cafe located in El Hamma, Tunisia. The café is rated 4.2 out of 5 stars on Google and offers a variety of services, including coffee, tea, and snacks. The café is located at coordinates (33.8833694, 9.7947312).
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Castilia Suites is a 4.5-star hotel located in El Hamma, Tunisia. The hotel offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is located near the city center and is within walking distance of many of the city's attractions.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader (36.8223164, 10.0628018) is a hammam located in El Hamma. It has a rating of 4.5 out of 5 based on 2 reviews.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -782,14 +835,60 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out Cafe lounge Babali'Za conveniently located at Rue l'environnement proche station de louage, El Hamma 6020. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 33.8776496, 9.804123. For more details, visit their website at https://www.facebook.com/Cafe-lounge-BabAliZa-105618911235229/ or call them at 52 600 006.</t>
+          <t>Café Lounge Babali'Za is a teahouse located in El Hamma, Tunisia (coordinates: 33.8776496, 9.804123). It is close to the station of Louage and offers a 24-hour service. Babali'Za has received a 4.4/5 rating based on 9 reviews and is categorized as a teahouse.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where in El Hamma can you enjoy a Salon de thé experience around the clock at a top-rated destination?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the El Hamma Market, immersing yourself in the vibrant local culture and discovering unique souvenirs.
+Mid-Morning: Visit the scenic Bi'r Shanshu, a local water source, and relax amidst its peaceful surroundings, enjoying the tranquility of nature.
+Midday: Treat your taste buds to a delightful lunch at Restaurant Aziz, indulging in the flavors of local Peruvian cuisine and savoring the authentic ambiance.
+Afternoon: Engage in some retail therapy at Rue IMEM MALEK, where you can find a variety of goods, from traditional crafts to modern souvenirs, supporting local businesses.
+Evening: Experience the rejuvenating benefits of Hammam Chanchou, a traditional Hammam offering a range of services, including massages and gommage, leaving you feeling refreshed and revitalized.
+Night: Conclude your day with a memorable dinner at Cafe al Jomhouria, known for its excellent food and drinks, and soak in the lively atmosphere as you enjoy a satisfying meal.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aziz is a restaurant located in El Hamma, Peru. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is open from 08:00 to 23:00 and is located at the coordinates (-11.9048446, -77.0349505).
+Café Lounge Babali'Za is a teahouse located in El Hamma, Tunisia (coordinates: 33.8776496, 9.804123). It is close to the station of Louage and offers a 24-hour service. Babali'Za has received a 4.4/5 rating based on 9 reviews and is categorized as a teahouse.
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+Cafe al Jomhouria is a cafe located in El Hamma, Tunisia. It is rated 5.0 out of 5 stars on Google, and offers a variety of food and drinks. The cafe is open from 6:30 AM to 10:30 PM every day, and is located at the coordinates (36.87746, 10.3266767).
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+**Residence Le Jasmin** is a hotel situated in Oued El Hammam, Sousse, Tunisia. The hotel offers a 4.1 rating based on 26 reviews and features a variety of amenities, including free Wi-Fi, parking, and a swimming pool. The hotel is conveniently located in the center of el hamma, close to a variety of shops and restaurants.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Located in Chanchou, el hamma, Hammam Chanchou is a popular Hammam offering a rejuvenating experience. It's open from 5 am to 8:30 pm, providing a wide range of services including jacuzzi, massage, and gommage. The Hammam has received 141 reviews, averaging a 4.0 rating. It features mineral-rich waters, separate chambers for men and women, and prayer facilities. Hammam Chanchou is known for its affordable pricing, cleanliness, and relaxing atmosphere.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -895,12 +994,60 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out 30.8 creperie located at VQQW+3W3 30.8 creperie, Unnamed Road, El Hamma. This top-rated destination is perfect for Creperie lovers and offers a range of Creperie to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 07:00-23:30. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, call them at 23 597 726.</t>
+          <t>Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where can you visit a top-rated Creperie destination with a 4.6 rating in El Hamma?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the charming streets of El Hamma, Tunisia, and immersing yourself in the local culture.
+Mid-Morning: Visit "EL MONDO," a cozy tea room known for its delicious tea and coffee offerings, and savor a refreshing cup while enjoying the welcoming atmosphere.
+Midday: Indulge in a culinary adventure at Restaurant Aziz, known for its delectable Peruvian dishes and warm hospitality.
+Afternoon: Take a refreshing stroll through Jardin Municipal El Hamma, a beautiful park where you can relax and soak up the serene surroundings.
+Evening: Head to Café Berlin, a popular spot for convivial dining, and relish a satisfying dinner while engaging with fellow travelers.
+Night: Explore the vibrant nightlife of El Hamma by visiting Hammam sidi swiid, a highly-rated bar, and dance the night away to lively local tunes.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aziz is a restaurant located in El Hamma, Peru. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is open from 08:00 to 23:00 and is located at the coordinates (-11.9048446, -77.0349505).
+EL MONDO is a tea room located in El Hamma, Tunisia. Situated at the coordinates (33.8833694, 9.7947312), it offers a variety of tea and coffee options. Customers have praised the tea room's atmosphere and service, awarding it a 5.0 rating. It is open daily from 9:00 am to 5:00 pm and is easily accessible via Google Maps.
+Creperie Nejma, located in El Hamma (Tunisia), is a restaurant that offers a variety of crepes. It is situated at VQMV+3R5 and has a rating of 4.0 based on 4 reviews. Unfortunately, the restaurant's website, phone number, and owner information are not available.
+Café Berlin is a popular cafe located in El Hamma, Tunisia. The cafe is known for its friendly atmosphere, delicious food, and strong coffee. Café Berlin is a great place to relax and enjoy a meal or a drink with friends. The cafe is located at VQJG+4V7, and it is open from 6:45 AM to 12:45 AM, 7 days a week.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+The Residence Le Jasmin is a hotel located in Oued El Hammam Sousse, and classified as a hotel. Its coordinates are: (35.869776637599, 10.603108765354). It has a 4.1 rating based on 26 reviews.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam located in Chanchou, El Hamma, Tunisia. The hammam offers a variety of services, including traditional hammam treatments, jacuzzi, gommage, and massages. It is also known for its clean and comfortable facilities. The hammam is open daily from 5:00 AM to 8:30 PM and is located at VVWG+243 Hammam Chanchou, Chanchou, El Hamma.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Kiosque hsan is a petrol station located at VQJR+2GF Kiosque hsan, P16, El Hamma, Tunisia, with coordinates (33.8833694, 9.7947312). It offers 24/7 services and has been rated 5.0 stars by one reviewer.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -998,12 +1145,60 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a cozy spot to relax, look no further than Essiguifa - El Hamma du Djerid. Located at 256H+H8 Essiguifa - El Hamma du Djerid, El Hamma du Jerid, this top-rated cafe is the perfect place to hang out and enjoy a cup of coffee. With a rating of 4.4, it's a must-visit spot for cafe lovers. You can find them at these coordinates: (34.01152, 8.15308).</t>
+          <t>Essiguifa - El Hamma du Djerid is a café in el hamma, Tunisia, located at (34.01152, 8.15308) with a rating of 4.4 based on 7 reviews.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where in El Hamma can you unwind in a highly-rated cafe with cozy ambiance and a delicious cup of coffee?</t>
+          <t>Day Plan:
+Morning: Visit the ancient Hammam Chanchou for a traditional hammam experience and thermal spring therapy.
+Mid-Morning: Explore the historical Kasbah of El Hamma and discover its cultural heritage.
+Midday: Try local cuisine at Café Lounge Babali'Za, renowned for its authentic tea selection and cozy ambiance.
+Afternoon: Relax and rejuvenate with a massage at STATION THERMALE CHAIBI, a hotel complex known for its massage services.
+Evening: Explore the vibrant streets of El Hamma and shop for local souvenirs at the bustling market.
+Night: Enjoy dinner at Restaurant Chichkhan, savoring the flavors of traditional Tunisian dishes while soaking in the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Chichkhan is a restaurant located in El Hamma, Tunisia. It offers a variety of dishes and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (33.8833694, 9.7947312).
+Café Lounge Babali'Za is a teahouse located in El Hamma, Tunisia (coordinates: 33.8776496, 9.804123). It is close to the station of Louage and offers a 24-hour service. Babali'Za has received a 4.4/5 rating based on 9 reviews and is categorized as a teahouse.
+Creperie Nejma, located in El Hamma (Tunisia), is a restaurant that offers a variety of crepes. It is situated at VQMV+3R5 and has a rating of 4.0 based on 4 reviews. Unfortunately, the restaurant's website, phone number, and owner information are not available.
+Cafe Al Quds is a cafe located in the heart of El Hamma, known for its cozy ambiance and delicious coffee. With a rating of 4.0 based on 7 reviews, it's a popular spot among locals and tourists alike. Its exact location is at (33.8913232, 9.8035444).
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+The Residence Le Jasmin is a hotel located in Oued El Hammam Sousse, and classified as a hotel. Its coordinates are: (35.869776637599, 10.603108765354). It has a 4.1 rating based on 26 reviews.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam in El Hamma, Tunisia. It is known for its traditional Hammam experience, thermal spring, massage therapy and wellness facilities. Located at (33.81027, 9.87455), it offers a relaxing and rejuvenating experience for visitors and locals alike.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Kiosque hsan is a petrol station located at VQJR+2GF Kiosque hsan, P16, El Hamma, Tunisia, with coordinates (33.8833694, 9.7947312). It offers 24/7 services and has been rated 5.0 stars by one reviewer.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1296,66 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you happen to be in el hamma and looking for a great Cafe experience, you should definitely check out Cafe El Garabi located at VXGV+577 Cafe El Garabi, P16, El Hamma. This top-rated destination is perfect for Cafe lovers and has a rating of 4.2. You can visit their website or call them for more information.</t>
+          <t>Café El Garabi is a cafe located in El Hamma, Tunisia. The café is rated 4.2 out of 5 stars on Google and offers a variety of services, including coffee, tea, and snacks. The café is located at coordinates (33.8833694, 9.7947312).</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe in El Hamma that offers a fantastic experience, as evidenced by its 4.2 rating?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historical streets of El Hamma
+**Mid-Morning:**
+- Visit the Hammem Sidi Abdelkader for a traditional Hammam experience
+**Midday:**
+- Try local cuisine at Restaurant Chichkhan, known for its authentic Tunisian dishes
+**Afternoon:**
+- Enjoy the scenic views at Bi'r Shanshu, a drinking water location with panoramic surroundings
+**Evening:**
+- Participate in a cultural immersion by visiting the Hammam sidi swiid, a popular bar with a vibrant atmosphere
+**Night:**
+- Relax with a massage at STATION THERMALE CHAIBI, a hotel complex and massage institute</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Chichkhan is a restaurant located in El Hamma, Tunisia. It offers a variety of dishes and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (33.8833694, 9.7947312).
+Café Lounge Babali'Za is a teahouse located in El Hamma, Tunisia (coordinates: 33.8776496, 9.804123). It is close to the station of Louage and offers a 24-hour service. Babali'Za has received a 4.4/5 rating based on 9 reviews and is categorized as a teahouse.
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+Cafe Terrasse Elhamma is a popular cafe located in El Hamma, Tunisia. It has a rating of 4.5 stars on Google Reviews, with users praising its friendly staff and delicious food. The cafe offers a wide variety of dishes, including traditional Tunisian cuisine and international fare. It is located at (35.4637138, 7.0834273) and is open from 7:00 AM to 11:30 PM daily.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Castilia Suites is a 4.5-star hotel located in El Hamma, Tunisia. The hotel offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is located near the city center and is within walking distance of many of the city's attractions.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader is a Hammam located in el hamma, Tunisia. It has a rating of 4.5 out of 2 reviews on Google Maps. Its coordinates are (36.8223164, 10.0628018).
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Station Service TotalEnergies EL HAMMA is a gas station located in el hamma, Tunisia. It offers a wide range of services including fuel, snacks, and drinks. The station is open 24 hours a day and is conveniently located on the main road.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1208,12 +1457,60 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out Restaurant Aziz located at VQQW+9VV Restaurant Aziz, El Hamma. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on []. To get there, use these GPS coordinates: -11.9048446, -77.0349505.</t>
+          <t>Restaurant Aziz is a restaurant that offers a variety of delicious dishes, and is located in el hamma. They are open from 08:00-23:00 and are rated 4.0 out of 5 stars based on 5 reviews.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where in El Hamma can you find a highly-rated restaurant destination known for its wide variety of culinary delights?</t>
+          <t>Day Plan:
+Morning: Exploring Hammam Chanchou, a popular hammam known for its traditional treatments and clean facilities.
+Mid-Morning: Trying local cuisine at mlyH@ lHm@ MLIHA, a highly-rated poultry restaurant serving delicious dishes 24/7.
+Midday: Visiting Bi'r Shanshu, a drinking water location offering fresh water to quench your thirst.
+Afternoon: Enjoying scenic views at Hammam sidi swiid, a 4.8-star rated bar with a great atmosphere and close proximity to nature.
+Evening: Participating in the vibrant atmosphere at L'Étoile d'Or, a renowned restaurant serving exquisite dishes and offering a delightful dining experience.
+Night: Relaxing with a massage at STATION THERMALE CHAIBI, a hotel complex and massage institute offering rejuvenating treatments.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover **L'Étoile d'Or,** a renowned restaurant located in El Hamma. Situated at (33.8833694, 9.7947312), this 4.2-star establishment offers a delightful dining experience with its unique offerings. Immerse yourself in the vibrant atmosphere and savor the flavors prepared by the skilled chefs.
+EL MONDO is a tea room located in El Hamma, Tunisia. Situated at the coordinates (33.8833694, 9.7947312), it offers a variety of tea and coffee options. Customers have praised the tea room's atmosphere and service, awarding it a 5.0 rating. It is open daily from 9:00 am to 5:00 pm and is easily accessible via Google Maps.
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+Cafe Terrasse Elhamma is a popular cafe located in El Hamma, Tunisia. It has a rating of 4.5 stars on Google Reviews, with users praising its friendly staff and delicious food. The cafe offers a wide variety of dishes, including traditional Tunisian cuisine and international fare. It is located at (35.4637138, 7.0834273) and is open from 7:00 AM to 11:30 PM daily.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Castilia Suites is a 4.5-star hotel located in El Hamma, Tunisia. The hotel offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is located near the city center and is within walking distance of many of the city's attractions.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam located in Chanchou, El Hamma, Tunisia. The hammam offers a variety of services, including traditional hammam treatments, jacuzzi, gommage, and massages. It is also known for its clean and comfortable facilities. The hammam is open daily from 5:00 AM to 8:30 PM and is located at VVWG+243 Hammam Chanchou, Chanchou, El Hamma.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1315,12 +1612,60 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a top-rated Cafe, check out mntzh msk llyl located at VQHG+XGW mntzh msk llyl, P16. This destination is perfect for Cafe lovers and offers a rating of 4.3. It's open during these hours:, but closed on []. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at or call them at 97 654 474.</t>
+          <t>mntzh msk llyl is a cafe located in El Hamma, Tunisia. It offers a variety of food and drinks, and has a 4.3 rating on Google Maps. The cafe is open 7 days a week, and is located at VQHG+XGW mntzh msk llyl, P16, El Hamma.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe (4.3 stars) in el hamma, offering a delightful ambiance for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historical significance of El Hamma by visiting the Hammam Chanchou, a renowned thermal spring and hammam experience.
+Mid-Morning: Immerse yourself in the local flavors by trying local cuisine at L'Etoile d'Or, known for its delectable culinary experience and positive reviews.
+Midday: Visit the Residence Le Jasmin, a 4.1-star hotel situated in the heart of El Hamma, and enjoy the comfortable amenities and friendly service.
+Afternoon: Engage in outdoor activities by exploring the scenic views of Bi'r Shanshu, a drinking water location offering breathtaking surroundings.
+Evening: Participate in the lively atmosphere at Hammam sidi swiid, a highly-rated bar, and enjoy the local nightlife.
+Night: Experience cultural immersion by visiting the Station Service TotalEnergies EL HAMMA, a gas station that offers a glimpse into the local lifestyle and culture.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'Etoile d'Or, located in El Hamma at coordinates (33.8833694, 9.7947312), is a reputable restaurant offering a delectable culinary experience. With a 4.2-star rating based on 15 reviews, it has gained a solid reputation among diners.
+Café Lounge Babali'Za is a teahouse located in El Hamma, Tunisia (coordinates: 33.8776496, 9.804123). It is close to the station of Louage and offers a 24-hour service. Babali'Za has received a 4.4/5 rating based on 9 reviews and is categorized as a teahouse.
+Creperie Nejma, located in El Hamma (Tunisia), is a restaurant that offers a variety of crepes. It is situated at VQMV+3R5 and has a rating of 4.0 based on 4 reviews. Unfortunately, the restaurant's website, phone number, and owner information are not available.
+Café Terrasse Elhamma is a popular cafe located in El Hamma, Tunisia. The café offers a variety of coffee drinks, as well as other beverages and snacks. It is a popular spot for locals and tourists alike, and is known for its friendly atmosphere and great service. The café is situated in the heart of the city, making it easy to get to from anywhere.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam in El Hamma, Tunisia. It is known for its traditional Hammam experience, thermal spring, massage therapy and wellness facilities. Located at (33.81027, 9.87455), it offers a relaxing and rejuvenating experience for visitors and locals alike.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Station Service TotalEnergies EL HAMMA is a gas station located in el hamma, Tunisia. It offers a wide range of services including fuel, snacks, and drinks. The station is open 24 hours a day and is conveniently located on the main road.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1414,12 +1759,60 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great Cafe, check out cafe juini located at VJJC+H88 cafe juini, benghilpuf, El Hamma. This top-rated destination is perfect for Cafe lovers. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+juini/data=!4m7!3m6!1s0x125593bdf1cb8a53:0x4809e368af6d2abc!8m2!3d33.8814019!4d9.6208286!16s%2Fg%2F11h6njpmn3!19sChIJU4rL8b2TVRIRvCptr2jjCUg?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The cafe Juini is located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It has a rating of 4.5 out of 5 stars based on 4 reviews on Google Maps. The cafe offers a variety of cafe-style food and beverages.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe in El Hamma that is a must-visit for Cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historic ruins of **Hammam sidi Abdelkader**, a renowned hammam known for its rejuvenating treatments.
+Mid-Morning: Visit the **Café Lounge Babali'Za**, a highly-rated teahouse serving traditional Tunisian tea and snacks, offering a chance to savor local flavors and connect with the community.
+Midday: Indulge in a delicious lunch at **mlyH@ lHm@ MLIHA**, a restaurant specializing in poultry dishes, experiencing the authentic flavors of Tunisian cuisine.
+Afternoon: Explore the **Bi'r Shanshu** drinking water location, a local landmark that provides a refreshing respite and a glimpse into daily life.
+Evening: Relax and unwind with a traditional hammam experience at **Station Thermal Chaibi**, a hotel complex and massage institute known for its therapeutic and restorative treatments.
+Night: Experience the lively ambiance of **Hammam sidi swiid**, a 4.8-star rated bar known for its lively atmosphere and local entertainment, while enjoying the vibrant nightlife of El Hamma.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Chichkhan is a restaurant located in El Hamma, Tunisia. It offers a variety of dishes and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (33.8833694, 9.7947312).
+Café Lounge Babali'Za is a teahouse located in El Hamma, Tunisia (coordinates: 33.8776496, 9.804123). It is close to the station of Louage and offers a 24-hour service. Babali'Za has received a 4.4/5 rating based on 9 reviews and is categorized as a teahouse.
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+Lavazza is a well-rated cafe located in El Hamma, Tunisia, offering a warm and inviting atmosphere. Situated at coordinates (33.8833694, 9.7947312), the cafe is open from 5 AM to midnight every day, making it a convenient spot for early morning coffee or a late-night treat.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader is a famous Hammam located in el hamma. It is renowned for its relaxing and rejuvenating treatments. Visitors can enjoy a variety of services, including massages, body scrubs, and steam baths. The hammam is also known for its beautiful architecture and friendly staff.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1914,60 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great cafe, check out Cafe Terrasse Elhamma located at VRW5+2GW Cafe Terrasse Elhamma, El Hamma. This top-rated destination is perfect for cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:00-23:30. To get there, use these GPS coordinates: 35.4637138, 7.0834273. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Terrasse+Elhamma/data=!4m7!3m6!1s0x12559b1b1c1f2333:0x6d29d88959669d16!8m2!3d33.8951112!4d9.8088424!16s%2Fg%2F11gk6fvzpq!19sChIJMyMfHBubVRIRFp1mWYnYKW0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Café Terrasse Elhamma is a popular cafe located in El Hamma, Tunisia. The café offers a variety of coffee drinks, as well as other beverages and snacks. It is a popular spot for locals and tourists alike, and is known for its friendly atmosphere and great service. The café is situated in the heart of the city, making it easy to get to from anywhere.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where is the 4.5-rated Cafe Terrasse Elhamma located, offering a great selection of cafes and boasting a perfect ambiance for cafe enthusiasts in El Hamma?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Station des louages, a vibrant bus station that offers a glimpse into local transportation.
+Mid-Morning: Indulge in local flavors at Chez Bilel, a fast-food restaurant renowned for its delicious cuisine.
+Midday: Visit the archaeological site of Hammam jabeur, a historical treasure that offers insights into the region's past.
+Afternoon: Relax and rejuvenate with a traditional massage at the renowned STATION THERMALE CHAIBI hotel complex.
+Evening: Discover the nightlife at Hammam sidi swiid, a highly-rated bar that promises an unforgettable ambiance.
+Night: Experience the cultural heritage of El Hamma with a guided tour of the Essiguifa café, a local hotspot that exudes traditional charm.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aziz is a restaurant located in El Hamma, Peru. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is open from 08:00 to 23:00 and is located at the coordinates (-11.9048446, -77.0349505).
+Café Lounge Babali'Za is a teahouse located in El Hamma, Tunisia (coordinates: 33.8776496, 9.804123). It is close to the station of Louage and offers a 24-hour service. Babali'Za has received a 4.4/5 rating based on 9 reviews and is categorized as a teahouse.
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+Essiguifa - El Hamma du Djerid is a café in el hamma, Tunisia, located at (34.01152, 8.15308) with a rating of 4.4 based on 7 reviews.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader (36.8223164, 10.0628018) is a hammam located in El Hamma. It has a rating of 4.5 out of 5 based on 2 reviews.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Station Service TotalEnergies EL HAMMA is a gas station located in el hamma, Tunisia. It offers a wide range of services including fuel, snacks, and drinks. The station is open 24 hours a day and is conveniently located on the main road.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1632,12 +2073,66 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out cafe MATADOR located at rue abdelkarim khattabi, El Hamma 6020. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-22:00 but closed on []. To get there, use these GPS coordinates: 33.88630692293, 9.796148284703. For more details, visit their website at  or call them at 24 287 302.</t>
+          <t>Cafe MATADOR is a cafe located in El Hamma, Tunisia, renowned for its exceptional rating of 5.0. Open from 6:00 AM to 10:00 PM daily, it offers a relaxing ambiance and delectable coffee creations. The cafe is situated at the convenient address of rue abdelkarim khattabi and can be easily reached via phone at 24 287 302.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a wide variety of categories to choose from in El Hamma?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historical El Hamma city center.
+Mid-Morning:
+- Visit the Station des louages for a transportation experience.
+Midday:
+- Try local cuisine at Restaurant Aziz.
+Afternoon:
+- Engage in outdoor activities at Hammam Chanchou, such as traditional hammam treatments.
+Evening:
+- Visit EL MONDO for a relaxing tea time experience.
+Night:
+- Experience cultural immersion at the Residence Le Jasmin.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aziz is a restaurant located in El Hamma, Peru. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is open from 08:00 to 23:00 and is located at the coordinates (-11.9048446, -77.0349505).
+EL MONDO is a tea room located in El Hamma, Tunisia. Situated at the coordinates (33.8833694, 9.7947312), it offers a variety of tea and coffee options. Customers have praised the tea room's atmosphere and service, awarding it a 5.0 rating. It is open daily from 9:00 am to 5:00 pm and is easily accessible via Google Maps.
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+Cafe royal is a cafe located in el hamma. It is rated 5.0 by one reviewer and is categorized as a cafe. Its exact location is VQJF+7HP Cafe royal, P16, El Hamma with coordinates (33.8833694, 9.7947312).
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+**Residence Le Jasmin** is a hotel situated in Oued El Hammam, Sousse, Tunisia. The hotel offers a 4.1 rating based on 26 reviews and features a variety of amenities, including free Wi-Fi, parking, and a swimming pool. The hotel is conveniently located in the center of el hamma, close to a variety of shops and restaurants.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam located in Chanchou, El Hamma, Tunisia. The hammam offers a variety of services, including traditional hammam treatments, jacuzzi, gommage, and massages. It is also known for its clean and comfortable facilities. The hammam is open daily from 5:00 AM to 8:30 PM and is located at VVWG+243 Hammam Chanchou, Chanchou, El Hamma.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Station Service TotalEnergies EL HAMMA is a gas station located in el hamma, Tunisia. It offers a wide range of services including fuel, snacks, and drinks. The station is open 24 hours a day and is conveniently located on the main road.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1731,14 +2226,60 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out CaffeAZIZ located at RVFH+5QQ CaffeAZIZ, Chanchou, El Hamma. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.81027, 9.87455. For more details, visit their website at https://www.google.com/maps/place/Caff%C3%A9AZIZ/data=!4m7!3m6!1s0x12559f003ef38c55:0xfffac7ef3dac319c!8m2!3d33.8229716!4d9.8794744!16s%2Fg%2F11vytfhrqy!19sChIJVYzzPgCfVRIRnDGsPe_H-v8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at (proprietaire).</t>
+          <t>CaffeAZIZ, located in Chanchou, El Hamma (33.81027, 9.87455), is a cafe that has received a 5-star rating from one reviewer. Unfortunately, there is no further information about its offerings, website, or contact details available.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe with excellent ratings in El Hamma, known for its wide selection of Cafe?</t>
+          <t>Day Plan:
+Morning: Explore the historic ruins of Hammam Sidi Abdelkader
+Mid-Morning: Try local cuisine at Chez Bilel, a fast food restaurant known for its delicious food
+Midday: Visit the scenic Bi'r Shanshu, a drinking water location with a 4.0 rating
+Afternoon: Enjoy a relaxing massage at STATION THERMALE CHAIBI, a hotel complex and massage institute
+Evening: Participate in a guided tour of the station des louages, a bus station that offers transportation services
+Night: Take in the beautiful views at La Belle Etoile, a highly-rated cafe known for its warm and inviting atmosphere</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aziz is a restaurant located in El Hamma, Peru. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is open from 08:00 to 23:00 and is located at the coordinates (-11.9048446, -77.0349505).
+Cafe Al Barzakh is a Tea Room located in El Hamma, Tunisia. It has a rating of 4.1 based on 12 reviews. The tea room offers a variety of teas and other beverages. It is located at the coordinates (33.8833694, 9.7947312).
+Creperie Nejma, located in El Hamma (Tunisia), is a restaurant that offers a variety of crepes. It is situated at VQMV+3R5 and has a rating of 4.0 based on 4 reviews. Unfortunately, the restaurant's website, phone number, and owner information are not available.
+La Belle Etoile, a highly-rated cafe located at VRV5+V49 La Belle Etoile, El Hamma, Tunisia. The cafe is known for its warm and inviting atmosphere, offering a range of coffee, tea, and pastries. Situated at coordinates (49.554803025492, 0.170204844663), it's conveniently located for locals and visitors seeking a cozy spot to relax and socialize.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+The Residence Le Jasmin is a hotel located in Oued El Hammam Sousse, and classified as a hotel. Its coordinates are: (35.869776637599, 10.603108765354). It has a 4.1 rating based on 26 reviews.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader is a famous Hammam located in el hamma. It is renowned for its relaxing and rejuvenating treatments. Visitors can enjoy a variety of services, including massages, body scrubs, and steam baths. The hammam is also known for its beautiful architecture and friendly staff.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Kiosque hsan is a petrol station located at VQJR+2GF Kiosque hsan, P16, El Hamma, Tunisia, with coordinates (33.8833694, 9.7947312). It offers 24/7 services and has been rated 5.0 stars by one reviewer.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1844,12 +2385,60 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great meal, check out mlyH@ lHm@ MLIHA located at VQPW+9J7 mlyH@ lHm@ MLIHA, El Hamma. This top-rated destination is perfect for Restaurant de volaille lovers and offers a range of Restaurant de volaille to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, call them at 20 200 992.</t>
+          <t>mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Question: Where in El Hamma can you find a highly-rated Restaurant de volaille destination with 24-hour availability?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins at Dougga
+Mid-Morning: Visit the El Hamma Museum to learn about the town's history and culture
+Midday: Enjoy a traditional Tunisian lunch at L'Etoile d'Or restaurant
+Afternoon: Relax in the thermal springs at Hammam sidi swiid
+Evening: Take a cooking class to learn how to prepare local dishes
+Night: Enjoy a traditional Tunisian dinner at mlyH@ lHm@ MLIHA restaurant</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'Etoile d'Or, located in El Hamma at coordinates (33.8833694, 9.7947312), is a reputable restaurant offering a delectable culinary experience. With a 4.2-star rating based on 15 reviews, it has gained a solid reputation among diners.
+EL MONDO is a tea room located in El Hamma, Tunisia. Situated at the coordinates (33.8833694, 9.7947312), it offers a variety of tea and coffee options. Customers have praised the tea room's atmosphere and service, awarding it a 5.0 rating. It is open daily from 9:00 am to 5:00 pm and is easily accessible via Google Maps.
+Creperie Nejma, located in El Hamma (Tunisia), is a restaurant that offers a variety of crepes. It is situated at VQMV+3R5 and has a rating of 4.0 based on 4 reviews. Unfortunately, the restaurant's website, phone number, and owner information are not available.
+mntzh msk llyl is a cafe located in El Hamma, Tunisia. It has a rating of 4.3 out of 5 stars on Google Maps, and is open daily. The cafe offers a variety of food and drinks, and is a popular spot for locals and tourists alike. It's located at the coordinates (33.8833694, 9.7947312).
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader (36.8223164, 10.0628018) is a hammam located in El Hamma. It has a rating of 4.5 out of 5 based on 2 reviews.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1951,14 +2540,60 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great place to stay, check out Residence Le Jasmin located at Route Touristique, Avenue 14 Janvier, Oued El Hammam, Sousse. 
-This top-rated hotel is perfect for those looking for a comfortable stay and offers a range of amenities to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 35.869776637599, 10.603108765354. For more details, visit their website or call them at 54 481 980.</t>
+          <t>The Residence Le Jasmin is a hotel located in Oued El Hammam Sousse, and classified as a hotel. Its coordinates are: (35.869776637599, 10.603108765354). It has a 4.1 rating based on 26 reviews.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where in el hamma can you find a highly-rated hotel with a range of amenities and a convenient location, accessible via GPS coordinates or a phone call?</t>
+          <t>Day Plan:
+Morning: Explore the historical Hammam Chanchou (traditional hammam)
+Mid-Morning: Visit Hammam Sidi Sweiid bar for refreshments
+Midday: Try local cuisine at Restaurant Aziz
+Afternoon: Enjoy scenic views at Bi'r Shanshu drinking water location
+Evening: Relax with a massage at Station Thermale Chaibi hotel complex
+Night: Participate in a guided tour of Hammam Jabeur holiday rental</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aziz is a restaurant located in El Hamma, Peru. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is open from 08:00 to 23:00 and is located at the coordinates (-11.9048446, -77.0349505).
+Cafe Al Barzakh is a Tea Room located in El Hamma, Tunisia. It has a rating of 4.1 based on 12 reviews. The tea room offers a variety of teas and other beverages. It is located at the coordinates (33.8833694, 9.7947312).
+Creperie Nejma, located in El Hamma (Tunisia), is a restaurant that offers a variety of crepes. It is situated at VQMV+3R5 and has a rating of 4.0 based on 4 reviews. Unfortunately, the restaurant's website, phone number, and owner information are not available.
+mntzh msk llyl is a cafe located in El Hamma, Tunisia. It offers a variety of food and drinks, and has a 4.3 rating on Google Maps. The cafe is open 7 days a week, and is located at VQHG+XGW mntzh msk llyl, P16, El Hamma.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Castilia Suites is a 4.5-star hotel located in El Hamma, Tunisia. The hotel offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is located near the city center and is within walking distance of many of the city's attractions.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam located in Chanchou, El Hamma, Tunisia. The hammam offers a variety of services, including traditional hammam treatments, jacuzzi, gommage, and massages. It is also known for its clean and comfortable facilities. The hammam is open daily from 5:00 AM to 8:30 PM and is located at VVWG+243 Hammam Chanchou, Chanchou, El Hamma.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Station Service TotalEnergies EL HAMMA is a gas station located in el hamma, Tunisia. It offers a wide range of services including fuel, snacks, and drinks. The station is open 24 hours a day and is conveniently located on the main road.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2060,14 +2695,60 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a comfortable place to stay, check out Residence Le Jasmin located at Residence Le Jasmin, Route Touristique, Avenue 14 Janvier, Oued El Hammam. 
-This top-rated hotel is perfect for travelers and offers a range of amenities to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: Not provided, but closed on Not provided. To get there, use these GPS coordinates: 35.869776637599, 10.603108765354. For more details, visit their website at Not provided or call them at 54 481 980.</t>
+          <t>**Residence Le Jasmin** is a hotel situated in Oued El Hammam, Sousse, Tunisia. The hotel offers a 4.1 rating based on 26 reviews and features a variety of amenities, including free Wi-Fi, parking, and a swimming pool. The hotel is conveniently located in the center of el hamma, close to a variety of shops and restaurants.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated hotel with various amenities in El Hamma, perfect for travelers seeking a comfortable stay?</t>
+          <t>Day Plan:
+Morning: Exploring Hammam sidi swiid
+Mid-Morning: Trying local cuisine at Restaurant Aziz
+Midday: Visiting Cafe Teatro
+Afternoon: Relaxing with a massage at STATION THERMALE CHAIBI
+Evening: Enjoying scenic views at Bi'r Shanshu
+Night: Experiencing cultural immersion at mlyH@ lHm@ MLIHA</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aziz is a restaurant located in El Hamma, Peru. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is open from 08:00 to 23:00 and is located at the coordinates (-11.9048446, -77.0349505).
+Café Lounge Babali'Za is a teahouse located in El Hamma, Tunisia (coordinates: 33.8776496, 9.804123). It is close to the station of Louage and offers a 24-hour service. Babali'Za has received a 4.4/5 rating based on 9 reviews and is categorized as a teahouse.
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+Cafe Teatro is a 5-star rated cafe located in El Hamma, Tunisia. It offers a cozy and inviting atmosphere with a warm and friendly staff. The cafe serves a variety of drinks, including coffee, tea, and juices, as well as a selection of snacks and pastries. Cafe Teatro is a great place to relax and enjoy a drink with friends or family. It is conveniently located near the city center, making it easy to visit after a day of exploring the city.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader (36.8223164, 10.0628018) is a hammam located in El Hamma. It has a rating of 4.5 out of 5 based on 2 reviews.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Station Service TotalEnergies EL HAMMA is a gas station located in el hamma, Tunisia. It offers a wide range of services including fuel, snacks, and drinks. The station is open 24 hours a day and is conveniently located on the main road.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2169,14 +2850,60 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a comfortable place to stay, check out Residence Le Jasmin located at Route Touristique, Avenue 14 Janvier, Oued El Hammam, Sousse. 
-This top-rated hotel is perfect for those seeking a relaxing getaway, and offers a cozy atmosphere and comfortable accommodations. 
-With a rating of 4.1, it's a must-visit spot for travelers seeking a comfortable stay. To get there, use these GPS coordinates: 35.869776637599, 10.603108765354. For more details, visit their website at  or call them at 54 481 980.</t>
+          <t>Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where can you find a cozy and highly-rated hotel with a relaxing atmosphere in El Hamma, Sousse?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of Thugga, a UNESCO World Heritage site (Exploring)
+Mid-Morning: Visit the Roman Baths of Oued El Hammam for a relaxing soak (Relaxing)
+Midday: Try local cuisine at Restaurant Chichkhan for a taste of traditional Tunisian flavors (Trying local cuisine)
+Afternoon: Enjoy a guided tour of the Sidi Swiid Mosque, known for its intricate architecture (Taking a guided tour)
+Evening: Shop for local souvenirs and crafts at the El Hamma Souq (Shopping)
+Night: Relax with a traditional Hammam treatment at Hammam Chanchou for a rejuvenating experience (Relaxing)</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Chichkhan is a restaurant located in El Hamma, Tunisia. It offers a variety of dishes and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (33.8833694, 9.7947312).
+Cafe Al Barzakh is a Tea Room located in El Hamma, Tunisia. It has a rating of 4.1 based on 12 reviews. The tea room offers a variety of teas and other beverages. It is located at the coordinates (33.8833694, 9.7947312).
+Creperie Nejma, located in El Hamma (Tunisia), is a restaurant that offers a variety of crepes. It is situated at VQMV+3R5 and has a rating of 4.0 based on 4 reviews. Unfortunately, the restaurant's website, phone number, and owner information are not available.
+Cafe Teatro is a 5-star rated cafe located in El Hamma, Tunisia. It offers a cozy and inviting atmosphere with a warm and friendly staff. The cafe serves a variety of drinks, including coffee, tea, and juices, as well as a selection of snacks and pastries. Cafe Teatro is a great place to relax and enjoy a drink with friends or family. It is conveniently located near the city center, making it easy to visit after a day of exploring the city.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+**Residence Le Jasmin** is a hotel situated in Oued El Hammam, Sousse, Tunisia. The hotel offers a 4.1 rating based on 26 reviews and features a variety of amenities, including free Wi-Fi, parking, and a swimming pool. The hotel is conveniently located in the center of el hamma, close to a variety of shops and restaurants.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Located in Chanchou, el hamma, Hammam Chanchou is a popular Hammam offering a rejuvenating experience. It's open from 5 am to 8:30 pm, providing a wide range of services including jacuzzi, massage, and gommage. The Hammam has received 141 reviews, averaging a 4.0 rating. It features mineral-rich waters, separate chambers for men and women, and prayer facilities. Hammam Chanchou is known for its affordable pricing, cleanliness, and relaxing atmosphere.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Kiosque hsan is a petrol station located at VQJR+2GF Kiosque hsan, P16, El Hamma, Tunisia, with coordinates (33.8833694, 9.7947312). It offers 24/7 services and has been rated 5.0 stars by one reviewer.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2282,12 +3009,62 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a place to stay, check out Castilia Suites located at W4MQ+GWX Castilia Suites, route, El Hamma 2200. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: -33.9172962, 151.0358513. For more details, visit their website at http://www.castilia-suites-tozeur.vivehotels.com/ or call them at 76 463 777.</t>
+          <t>Castilia Suites is a 4.5-star hotel located in El Hamma, Tunisia. The hotel offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is located near the city center and is within walking distance of many of the city's attractions.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where in El Hamma can you find a top-rated Hotel with a 4.5 rating, perfect for those seeking a Hotel experience, and offering a range of Hotel options?</t>
+          <t>Day Plan:
+Morning: Explore the scenic beauty of Hammam sidi swiid while engaging in outdoor activities like hiking or cycling.
+Mid-Morning: Visit the historical Bi'r Shanshu, a significant drinking water location, and learn about its cultural significance.
+Midday: Try the local cuisine at Restaurant Aziz, known for its diverse menu and high ratings.
+Afternoon: Take a guided tour of Hammem Sidi Abdelkader, a renowned hammam, and experience its revitalizing effects.
+Evening: Enjoy the vibrant atmosphere of Café lounge Babali' Za, a popular spot for locals and tourists to socialize and relax.
+Night: Visit Chez Bilel, a fast food restaurant known for its delicious food and friendly service, for a casual dining experience.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aziz is a restaurant located in El Hamma, Peru. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is open from 08:00 to 23:00 and is located at the coordinates (-11.9048446, -77.0349505).
+Café lounge Babali' Za is a tea room located in El Hamma, Tunisia. It is open 24 hours a day and offers a variety of teas and other beverages. The tea room is also a popular spot for locals to socialize and relax. It is rated 4.4 out of 5 stars on Google Maps and has received positive reviews from customers. Café lounge Babali' Za is located at Rue l'environnement proche station de louage, El Hamma 6020. The coordinates of the tea room are (33.8776496, 9.804123).
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+Cafe MATADOR is a cafe located in El Hamma, Tunisia, renowned for its exceptional rating of 5.0. Open from 6:00 AM to 10:00 PM daily, it offers a relaxing ambiance and delectable coffee creations. The cafe is situated at the convenient address of rue abdelkarim khattabi and can be easily reached via phone at 24 287 302.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader (36.8223164, 10.0628018) is a hammam located in El Hamma. It has a rating of 4.5 out of 5 based on 2 reviews.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+**Agil El Hamma**
+Agil El Hamma is a renowned gas station located in El Hamma, Tunisia (coordinates: 35.4637138, 7.0834273). Open 24 hours a day, it provides motorists with convenient access to fuel and other services.
+With a rating of 5.0 stars based on customer reviews, Agil El Hamma has consistently impressed clients with its reliable service and exceptional amenities. It is easily accessible from major roads, making it a popular stop for travelers and locals alike.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2381,12 +3158,60 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Looking for a perfect vacation rental in el hamma? Check out Hammam jabeur at VRF2+JH5 Hammam jabeur, Unnamed Road. This top-rated destination is perfect for Location d'appartement de vacances lovers. With a rating of 5.0, it's a must-visit spot! For more details, visit their link at https://www.google.com/maps/place/Hammam+jabeur/data=!4m7!3m6!1s0x12559b60e2c2b18f:0xb572cf6646e1a334!8m2!3d33.8740137!4d9.8014938!16s%2Fg%2F11rtn4bqq1!19sChIJj7HC4mCbVRIRNKPhRmbPcrU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where is the top-rated vacation rental destination for "Location d'appartement de vacances" lovers in el hamma?</t>
+          <t>Day Plan:
+Morning: Explore the historic Hammam jabeur holiday rental (5.0 stars) for a glimpse into the local culture.
+Mid-Morning: Visit the renowned Cafe Teatro (5 stars) for a cozy and inviting ambiance with delectable coffee and pastries.
+Midday: Indulge in the local cuisine at the acclaimed L'Étoile d'Or restaurant (4.2 stars) for a delightful dining experience.
+Afternoon: Take a rejuvenating break at Hammam Sidi Abdelkader for a relaxing hammam experience and soothing treatments.
+Evening: Enjoy the scenic views and tranquility at Bi'r Shanshu, the popular drinking water location (4.0 stars).
+Night: Discover the vibrant atmosphere and savor the flavors of Chez Bilel (fast food restaurant) for a satisfying meal with friends and family.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover **L'Étoile d'Or,** a renowned restaurant located in El Hamma. Situated at (33.8833694, 9.7947312), this 4.2-star establishment offers a delightful dining experience with its unique offerings. Immerse yourself in the vibrant atmosphere and savor the flavors prepared by the skilled chefs.
+Café Lounge Babali'Za is a teahouse located in El Hamma, Tunisia (coordinates: 33.8776496, 9.804123). It is close to the station of Louage and offers a 24-hour service. Babali'Za has received a 4.4/5 rating based on 9 reviews and is categorized as a teahouse.
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+Cafe Teatro is a 5-star rated cafe located in El Hamma, Tunisia. It offers a cozy and inviting atmosphere with a warm and friendly staff. The cafe serves a variety of drinks, including coffee, tea, and juices, as well as a selection of snacks and pastries. Cafe Teatro is a great place to relax and enjoy a drink with friends or family. It is conveniently located near the city center, making it easy to visit after a day of exploring the city.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+**Residence Le Jasmin** is a hotel situated in Oued El Hammam, Sousse, Tunisia. The hotel offers a 4.1 rating based on 26 reviews and features a variety of amenities, including free Wi-Fi, parking, and a swimming pool. The hotel is conveniently located in the center of el hamma, close to a variety of shops and restaurants.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader is a famous Hammam located in el hamma. It is renowned for its relaxing and rejuvenating treatments. Visitors can enjoy a variety of services, including massages, body scrubs, and steam baths. The hammam is also known for its beautiful architecture and friendly staff.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Station Service TotalEnergies EL HAMMA is a gas station located in el hamma, Tunisia. It offers a wide range of services including fuel, snacks, and drinks. The station is open 24 hours a day and is conveniently located on the main road.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2492,12 +3317,60 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out Hammam Chanchou located at VVWG+243 Hammam Chanchou, Chanchou, El Hamma. This top-rated destination is perfect for Hammam lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-20:30. To get there, use these GPS coordinates: 33.81027, 9.87455. For more details, visit their website at https://www.google.com/maps/place/Hammam+Chanchou/data=!4m7!3m6!1s0x12559d0b8c135bfd:0x5be18c60603330bc!8m2!3d33.8950089!4d9.8752841!16s%2Fg%2F11bzwp2xl9!19sChIJ_VsTjAudVRIRvDAzYGCM4Vs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 549 738.</t>
+          <t>Located in Chanchou, el hamma, Hammam Chanchou is a popular Hammam offering a rejuvenating experience. It's open from 5 am to 8:30 pm, providing a wide range of services including jacuzzi, massage, and gommage. The Hammam has received 141 reviews, averaging a 4.0 rating. It features mineral-rich waters, separate chambers for men and women, and prayer facilities. Hammam Chanchou is known for its affordable pricing, cleanliness, and relaxing atmosphere.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Hammam with a 4.0 rating and various offerings in El Hamma?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque streets of El Hamma and visit the historic Hammam sidi swiid, a highly-rated bar with a 4.8-star rating.
+Mid-Morning: Try local cuisine at Restaurant Chichkhan, renowned for its delicious dishes and 4.0-star rating.
+Midday: Visit Hammem Sidi Abdelkader, a famous hammam offering relaxing and rejuvenating treatments.
+Afternoon: Enjoy a leisurely walk to Bi'r Shanshu, a drinking water location with a 4.0-star rating.
+Evening: Participate in a guided tour of Residence Le Jasmin, a 4.1-star hotel showcasing beautiful architecture.
+Night: Experience cultural immersion at Café Lounge Babali'Za, a teahouse offering a 24-hour service and rated 4.4/5.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Chichkhan is a restaurant located in El Hamma, Tunisia. It offers a variety of dishes and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (33.8833694, 9.7947312).
+Café Lounge Babali'Za is a teahouse located in El Hamma, Tunisia (coordinates: 33.8776496, 9.804123). It is close to the station of Louage and offers a 24-hour service. Babali'Za has received a 4.4/5 rating based on 9 reviews and is categorized as a teahouse.
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+Lavazza is a well-rated cafe located in El Hamma, Tunisia, offering a warm and inviting atmosphere. Situated at coordinates (33.8833694, 9.7947312), the cafe is open from 5 AM to midnight every day, making it a convenient spot for early morning coffee or a late-night treat.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader is a famous Hammam located in el hamma. It is renowned for its relaxing and rejuvenating treatments. Visitors can enjoy a variety of services, including massages, body scrubs, and steam baths. The hammam is also known for its beautiful architecture and friendly staff.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Kiosque hsan is a petrol station located at VQJR+2GF Kiosque hsan, P16, El Hamma, Tunisia, with coordinates (33.8833694, 9.7947312). It offers 24/7 services and has been rated 5.0 stars by one reviewer.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2591,12 +3464,60 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in El Hamma and looking for a relaxing experience, visit Hammem Sidi Abdelkader located at VQMV+RHW Hammem Sidi Abdelkader, El Hamma. This top-rated destination is perfect for hammam lovers and offers a range of hammam treatments to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.8223164, 10.0628018. For more details, visit their website at https://www.google.com/maps/place/Hammem+Sidi+Abdelkader/data=!4m7!3m6!1s0x12559b755e32efeb:0xca20b8ab7d887da8!8m2!3d33.8846235!4d9.7939394!16s%2Fg%2F11lh334d5n!19sChIJ6-8yXnWbVRIRqH2Ifau4IMo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Hammem Sidi Abdelkader (36.8223164, 10.0628018) is a hammam located in El Hamma. It has a rating of 4.5 out of 5 based on 2 reviews.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where in El Hamma can you find a highly-rated hammam with a variety of treatments and a relaxing ambiance?</t>
+          <t>Day Plan:
+Morning: Explore the historical Hammam jabeur for a glimpse into the region's rich heritage.
+Mid-Morning: Savor local flavors at the highly-rated 30.8 Creperie, known for its delectable crepe creations.
+Midday: Immerse yourself in tranquility with a relaxing visit to Hammam Chanchou, renowned for its traditional hammam experience and rejuvenating thermal springs.
+Afternoon: Discover the scenic beauty of El Hamma's natural surroundings with a refreshing walk or hike through the picturesque Oued El Hammam.
+Evening: Experience the vibrant nightlife at Cafe MATADOR, a local favorite celebrated for its exceptional coffee creations and lively ambiance.
+Night: Indulge in a delectable dinner at Chez Bilel, a renowned fast food restaurant offering a diverse menu and friendly service.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover **L'Étoile d'Or,** a renowned restaurant located in El Hamma. Situated at (33.8833694, 9.7947312), this 4.2-star establishment offers a delightful dining experience with its unique offerings. Immerse yourself in the vibrant atmosphere and savor the flavors prepared by the skilled chefs.
+EL MONDO is a tea room located in El Hamma, Tunisia. Situated at the coordinates (33.8833694, 9.7947312), it offers a variety of tea and coffee options. Customers have praised the tea room's atmosphere and service, awarding it a 5.0 rating. It is open daily from 9:00 am to 5:00 pm and is easily accessible via Google Maps.
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+Cafe MATADOR is a cafe located in El Hamma, Tunisia, renowned for its exceptional rating of 5.0. Open from 6:00 AM to 10:00 PM daily, it offers a relaxing ambiance and delectable coffee creations. The cafe is situated at the convenient address of rue abdelkarim khattabi and can be easily reached via phone at 24 287 302.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+**Residence Le Jasmin** is a hotel situated in Oued El Hammam, Sousse, Tunisia. The hotel offers a 4.1 rating based on 26 reviews and features a variety of amenities, including free Wi-Fi, parking, and a swimming pool. The hotel is conveniently located in the center of el hamma, close to a variety of shops and restaurants.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam in El Hamma, Tunisia. It is known for its traditional Hammam experience, thermal spring, massage therapy and wellness facilities. Located at (33.81027, 9.87455), it offers a relaxing and rejuvenating experience for visitors and locals alike.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2702,14 +3623,60 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in El Hamma and looking for a Hammam, check out Hammam Chanchou located at VVWG+243 Hammam Chanchou, Chanchou. 
-This top-rated destination is perfect for Hammam lovers and offers a range of Hammam experiences to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-20:30, but closed on Fridays. To get there, use these GPS coordinates: 33.81027, 9.87455. For more details, visit their website at https://www.google.com/maps/place/Hammam+Chanchou/data=!4m7!3m6!1s0x12559d0b8c135bfd:0x5be18c60603330bc!8m2!3d33.8950089!4d9.8752841!16s%2Fg%2F11bzwp2xl9!19sChIJ_VsTjAudVRIRvDAzYGCM4Vs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 549 738.</t>
+          <t>Hammam Chanchou is a popular hammam in El Hamma, Tunisia. It is known for its traditional Hammam experience, thermal spring, massage therapy and wellness facilities. Located at (33.81027, 9.87455), it offers a relaxing and rejuvenating experience for visitors and locals alike.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated and popular Hammam experience with various options in El Hamma, accessible via specific GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore the historical and cultural heritage of the region by visiting the El Hamma Museum, featuring artifacts and exhibits showcasing the rich past of the area.
+Mid-Morning: Indulge in the local culinary delights at Restaurant Chichkhan, known for its authentic Tunisian cuisine and 4.0-star rating.
+Midday: Immerse yourself in the tranquility of Hammam Chanchou, a popular hammam offering rejuvenating experiences with its mineral-rich waters and massage services.
+Afternoon: Take a leisurely stroll through the scenic El Hamma Park, enjoying the lush greenery and vibrant atmosphere. Participate in recreational activities such as cycling or jogging amidst the park's picturesque surroundings.
+Evening: Head to EL MONDO, a charming tea room renowned for its cozy ambiance and delicious tea and coffee options, and savor the flavors of traditional Tunisian beverages.
+Night: Experience the vibrant nightlife of El Hamma at Hammam sidi swiid, a highly-rated bar with a lively atmosphere and live music, offering a lively and social environment to end the day on a high note.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Chichkhan is a restaurant located in El Hamma, Tunisia. It offers a variety of dishes and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (33.8833694, 9.7947312).
+EL MONDO is a tea room located in El Hamma, Tunisia. Situated at the coordinates (33.8833694, 9.7947312), it offers a variety of tea and coffee options. Customers have praised the tea room's atmosphere and service, awarding it a 5.0 rating. It is open daily from 9:00 am to 5:00 pm and is easily accessible via Google Maps.
+Creperie Nejma, located in El Hamma (Tunisia), is a restaurant that offers a variety of crepes. It is situated at VQMV+3R5 and has a rating of 4.0 based on 4 reviews. Unfortunately, the restaurant's website, phone number, and owner information are not available.
+Al Naseem is a 4-star rated cafe situated in El Hamma, Tunisia. It is open every day from 5:30 AM to 9:30 PM and is known for its great coffee and service.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+**Residence Le Jasmin** is a hotel situated in Oued El Hammam, Sousse, Tunisia. The hotel offers a 4.1 rating based on 26 reviews and features a variety of amenities, including free Wi-Fi, parking, and a swimming pool. The hotel is conveniently located in the center of el hamma, close to a variety of shops and restaurants.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Located in Chanchou, el hamma, Hammam Chanchou is a popular Hammam offering a rejuvenating experience. It's open from 5 am to 8:30 pm, providing a wide range of services including jacuzzi, massage, and gommage. The Hammam has received 141 reviews, averaging a 4.0 rating. It features mineral-rich waters, separate chambers for men and women, and prayer facilities. Hammam Chanchou is known for its affordable pricing, cleanliness, and relaxing atmosphere.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2803,14 +3770,62 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a relaxing and rejuvenating experience, check out Hammem Sidi Abdelkader located at VQMV+RHW Hammem Sidi Abdelkader, El Hamma. 
-This top-rated destination is perfect for Hammam lovers and offers a range of Hammam services to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.8223164, 10.0628018. For more details, visit their website at https://www.google.com/maps/place/Hammem+Sidi+Abdelkader/data=!4m7!3m6!1s0x12559b755e32efeb:0xca20b8ab7d887da8!8m2!3d33.8846235!4d9.7939394!16s%2Fg%2F11lh334d5n!19sChIJ6-8yXnWbVRIRqH2Ifau4IMo?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Hammem Sidi Abdelkader is a famous Hammam located in el hamma. It is renowned for its relaxing and rejuvenating treatments. Visitors can enjoy a variety of services, including massages, body scrubs, and steam baths. The hammam is also known for its beautiful architecture and friendly staff.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated hammam with a relaxing and rejuvenating experience in El Hamma?</t>
+          <t>Day Plan:
+Morning: Exploring the historic streets of El Hamma and admiring its traditional architecture.
+Mid-Morning: Trying local cuisine at Restaurant Chichkhan, known for its authentic Tunisian dishes and high ratings.
+Midday: Visiting Hammam sidi swiid, a highly-rated bar with a lively atmosphere to enjoy a refreshing drink.
+Afternoon: Shopping at the local market for traditional souvenirs and handicrafts, experiencing the vibrant local culture.
+Evening: Relaxing with a massage at STATION THERMALE CHAIBI, a renowned massage institute known for its rejuvenating treatments.
+Night: Experiencing cultural immersion at the cultural site of Hammam Chanchou, taking part in traditional hammam rituals and enjoying its clean and comfortable facilities.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Chichkhan is a restaurant located in El Hamma, Tunisia. It offers a variety of dishes and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (33.8833694, 9.7947312).
+EL MONDO is a tea room located in El Hamma, Tunisia. Situated at the coordinates (33.8833694, 9.7947312), it offers a variety of tea and coffee options. Customers have praised the tea room's atmosphere and service, awarding it a 5.0 rating. It is open daily from 9:00 am to 5:00 pm and is easily accessible via Google Maps.
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+Cafe al Jomhouria is a cafe located in El Hamma, Tunisia. It is rated 5.0 out of 5 stars on Google, and offers a variety of food and drinks. The cafe is open from 6:30 AM to 10:30 PM every day, and is located at the coordinates (36.87746, 10.3266767).
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam located in Chanchou, El Hamma, Tunisia. The hammam offers a variety of services, including traditional hammam treatments, jacuzzi, gommage, and massages. It is also known for its clean and comfortable facilities. The hammam is open daily from 5:00 AM to 8:30 PM and is located at VVWG+243 Hammam Chanchou, Chanchou, El Hamma.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+**Agil El Hamma**
+Agil El Hamma is a renowned gas station located in El Hamma, Tunisia (coordinates: 35.4637138, 7.0834273). Open 24 hours a day, it provides motorists with convenient access to fuel and other services.
+With a rating of 5.0 stars based on customer reviews, Agil El Hamma has consistently impressed clients with its reliable service and exceptional amenities. It is easily accessible from major roads, making it a popular stop for travelers and locals alike.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2916,12 +3931,60 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a relaxing and rejuvenating experience, check out Hammam Chanchou located at VVWG+243 Hammam Chanchou, Chanchou. This top-rated destination is perfect for Hammam lovers and offers a range of treatments to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-20:30, but closed on . To get there, use these GPS coordinates: 33.81027, 9.87455. For more details, visit their website at  or call them at 98 549 738.</t>
+          <t>Hammam Chanchou is a popular hammam located in Chanchou, El Hamma, Tunisia. The hammam offers a variety of services, including traditional hammam treatments, jacuzzi, gommage, and massages. It is also known for its clean and comfortable facilities. The hammam is open daily from 5:00 AM to 8:30 PM and is located at VVWG+243 Hammam Chanchou, Chanchou, El Hamma.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where can you experience tranquility and rejuvenation in El Hamma, offering highly-rated Hammam treatments?</t>
+          <t>Day Plan:
+Morning: Exploring the scenic Hammam jabeur holiday rental
+Mid-Morning: Trying local cuisine at Chez Bilel for a quick and tasty bite
+Midday: Visiting Hammam Chanchou for a rejuvenating and traditional Hammam experience
+Afternoon: Relaxing with a massage at STATION THERMALE CHAIBI
+Evening: Enjoying the lively atmosphere and local flavors at Café lounge Babali' Za
+Night: Exploring the night market for unique souvenirs and local crafts</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aziz is a restaurant that offers a variety of delicious dishes, and is located in el hamma. They are open from 08:00-23:00 and are rated 4.0 out of 5 stars based on 5 reviews.
+Café lounge Babali' Za is a tea room located in El Hamma, Tunisia. It is open 24 hours a day and offers a variety of teas and other beverages. The tea room is also a popular spot for locals to socialize and relax. It is rated 4.4 out of 5 stars on Google Maps and has received positive reviews from customers. Café lounge Babali' Za is located at Rue l'environnement proche station de louage, El Hamma 6020. The coordinates of the tea room are (33.8776496, 9.804123).
+Creperie Nejma, located in El Hamma (Tunisia), is a restaurant that offers a variety of crepes. It is situated at VQMV+3R5 and has a rating of 4.0 based on 4 reviews. Unfortunately, the restaurant's website, phone number, and owner information are not available.
+Cafe al Jomhouria is a cafe located in El Hamma, Tunisia. It is rated 5.0 out of 5 stars on Google, and offers a variety of food and drinks. The cafe is open from 6:30 AM to 10:30 PM every day, and is located at the coordinates (36.87746, 10.3266767).
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+**Residence Le Jasmin** is a hotel situated in Oued El Hammam, Sousse, Tunisia. The hotel offers a 4.1 rating based on 26 reviews and features a variety of amenities, including free Wi-Fi, parking, and a swimming pool. The hotel is conveniently located in the center of el hamma, close to a variety of shops and restaurants.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Located in Chanchou, el hamma, Hammam Chanchou is a popular Hammam offering a rejuvenating experience. It's open from 5 am to 8:30 pm, providing a wide range of services including jacuzzi, massage, and gommage. The Hammam has received 141 reviews, averaging a 4.0 rating. It features mineral-rich waters, separate chambers for men and women, and prayer facilities. Hammam Chanchou is known for its affordable pricing, cleanliness, and relaxing atmosphere.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Station Service TotalEnergies EL HAMMA is a gas station located in el hamma, Tunisia. It offers a wide range of services including fuel, snacks, and drinks. The station is open 24 hours a day and is conveniently located on the main road.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3015,12 +4078,60 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a Hammam, check out Hammem Sidi Abdelkader. This top-rated destination is perfect for Hammam lovers and offers a range of Hammam to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.8223164, 10.0628018.</t>
+          <t>Hammem Sidi Abdelkader is a Hammam located in el hamma, Tunisia. It has a rating of 4.5 out of 2 reviews on Google Maps. Its coordinates are (36.8223164, 10.0628018).</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where in El Hamma can you find a highly-rated Hammam (bathhouse), perfect for Hammam enthusiasts, with GPS coordinates of 36.8223164, 10.0628018?</t>
+          <t>Day Plan:
+Morning: Explore the historic Hammam area, discovering its charming streets and traditional architecture.
+Mid-Morning: Visit the Hammem Sidi Abdelkader for a relaxing and rejuvenating hammam experience.
+Midday: Try local cuisine at the renowned restaurant L'Étoile d'Or, savoring the flavors of Tunisia.
+Afternoon: Take a guided tour of the Castilia Suites, admiring its luxurious amenities and elegant interior.
+Evening: Engage in outdoor activities at the scenic Sidi swiid, enjoying the fresh air and stunning surroundings.
+Night: Immerse yourself in the cultural heritage of El Hamma by visiting the LIBRAIRIE MOETAZ for a unique and captivating experience.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover **L'Étoile d'Or,** a renowned restaurant located in El Hamma. Situated at (33.8833694, 9.7947312), this 4.2-star establishment offers a delightful dining experience with its unique offerings. Immerse yourself in the vibrant atmosphere and savor the flavors prepared by the skilled chefs.
+Cafe Al Barzakh is a Tea Room located in El Hamma, Tunisia. It has a rating of 4.1 based on 12 reviews. The tea room offers a variety of teas and other beverages. It is located at the coordinates (33.8833694, 9.7947312).
+Creperie Nejma, located in El Hamma (Tunisia), is a restaurant that offers a variety of crepes. It is situated at VQMV+3R5 and has a rating of 4.0 based on 4 reviews. Unfortunately, the restaurant's website, phone number, and owner information are not available.
+Cafe royal is a cafe located in el hamma. It is rated 5.0 by one reviewer and is categorized as a cafe. Its exact location is VQJF+7HP Cafe royal, P16, El Hamma with coordinates (33.8833694, 9.7947312).
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Castilia Suites is a 4.5-star hotel located in El Hamma, Tunisia. The hotel offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is located near the city center and is within walking distance of many of the city's attractions.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader (36.8223164, 10.0628018) is a hammam located in El Hamma. It has a rating of 4.5 out of 5 based on 2 reviews.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3114,12 +4225,62 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for top-rated Drinking water destinations, Bi'r Shanshu located at Bi'r Shanshu, El Hamma is a must-visit spot. With a rating of 4.0, it offers a great experience for Drinking water lovers. For more details, visit their website at https://www.google.com/maps/place/Bi%27r+Shanshu/data=!4m7!3m6!1s0x12559d62c213d22f:0x5bf53b7e2c3d8c9!8m2!3d33.9!4d9.9!16s%2Fg%2F1vnn3fxp!19sChIJL9ITwmKdVRIRydjD4rdTvwU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where in El Hamma can you find the top-rated "Bi'r Shanshu" spot, known for its exceptional Drinking water experience?</t>
+          <t>Day Plan:
+Morning: Explore the historic streets of El Hamma and visit the landmark Hammam Chanchou for a rejuvenating experience.
+Mid-Morning: Enjoy a cup of tea and local pastries at Café Lounge Babali'Za while observing the bustling atmosphere of the city.
+Midday: Indulge in a delightful lunch at L'Étoile d'Or, renowned for its unique culinary offerings.
+Afternoon: Wander through the picturesque Parc El Hamma, admiring the lush greenery and engaging in leisurely activities.
+Evening: Immerse yourself in the flavors of traditional Tunisian cuisine with a dinner at Creperie Nejma, known for its delectable crepes.
+Night: Relax and unwind at Hammam Sidi Swiid, a highly-rated bar offering a lively ambiance and refreshing beverages.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover **L'Étoile d'Or,** a renowned restaurant located in El Hamma. Situated at (33.8833694, 9.7947312), this 4.2-star establishment offers a delightful dining experience with its unique offerings. Immerse yourself in the vibrant atmosphere and savor the flavors prepared by the skilled chefs.
+Café Lounge Babali'Za is a teahouse located in El Hamma, Tunisia (coordinates: 33.8776496, 9.804123). It is close to the station of Louage and offers a 24-hour service. Babali'Za has received a 4.4/5 rating based on 9 reviews and is categorized as a teahouse.
+Creperie Nejma, located in El Hamma (Tunisia), is a restaurant that offers a variety of crepes. It is situated at VQMV+3R5 and has a rating of 4.0 based on 4 reviews. Unfortunately, the restaurant's website, phone number, and owner information are not available.
+Café Terrasse Elhamma is a popular cafe located in El Hamma, Tunisia. The café offers a variety of coffee drinks, as well as other beverages and snacks. It is a popular spot for locals and tourists alike, and is known for its friendly atmosphere and great service. The café is situated in the heart of the city, making it easy to get to from anywhere.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Castilia Suites is a 4.5-star hotel located in El Hamma, Tunisia. The hotel offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is located near the city center and is within walking distance of many of the city's attractions.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Located in Chanchou, el hamma, Hammam Chanchou is a popular Hammam offering a rejuvenating experience. It's open from 5 am to 8:30 pm, providing a wide range of services including jacuzzi, massage, and gommage. The Hammam has received 141 reviews, averaging a 4.0 rating. It features mineral-rich waters, separate chambers for men and women, and prayer facilities. Hammam Chanchou is known for its affordable pricing, cleanliness, and relaxing atmosphere.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+**Agil El Hamma**
+Agil El Hamma is a renowned gas station located in El Hamma, Tunisia (coordinates: 35.4637138, 7.0834273). Open 24 hours a day, it provides motorists with convenient access to fuel and other services.
+With a rating of 5.0 stars based on customer reviews, Agil El Hamma has consistently impressed clients with its reliable service and exceptional amenities. It is easily accessible from major roads, making it a popular stop for travelers and locals alike.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3221,12 +4382,60 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great Cafe, check out Lavazza located at VRQ2+X7P Lavazza, P16, El Hamma. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/Lavazza/data=!4m7!3m6!1s0x12559b9b579938a1:0xcfa5c8e602bdeb00!8m2!3d33.8899745!4d9.8006909!16s%2Fg%2F1pp2twzpr!19sChIJoTiZV5ubVRIRAOu9AubIpc8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [NAN].</t>
+          <t>Lavazza is a well-rated cafe located in El Hamma, Tunisia, offering a warm and inviting atmosphere. Situated at coordinates (33.8833694, 9.7947312), the cafe is open from 5 AM to midnight every day, making it a convenient spot for early morning coffee or a late-night treat.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where in El Hamma can you find Lavazza, a highly-rated cafe with a variety of options and extended hours?</t>
+          <t>Day Plan:
+Morning: Exploring the stunning Hammam jabeur, a holiday rental with comfortable accommodations and high ratings for relaxation and exploration.
+Mid-Morning: Trying local cuisine at 30.8 creperie, a popular spot with locals and tourists alike, offering a wide range of crepes for a satisfying breakfast or brunch.
+Midday: Visiting the historical Residence Le Jasmin, a 4.1 stars hotel situated in El hamma (Tunisia) with a great location and potential for a peaceful retreat.
+Afternoon: Enjoying scenic views at Bi'r Shanshu, a drinking water location situated in El Hamma, offering a chance to appreciate the beauty of the surroundings.
+Evening: Experiencing cultural immersion at Hammam sidi swiid, a 4.8-star rated bar with a great location and high ratings for a unique and authentic evening experience.
+Night: Participating in a relaxing hammam session at Hammam Chanchou, a popular hammam known for its clean and comfortable facilities, offering traditional hammam treatments and massages for a rejuvenating end to the day.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'Etoile d'Or, located in El Hamma at coordinates (33.8833694, 9.7947312), is a reputable restaurant offering a delectable culinary experience. With a 4.2-star rating based on 15 reviews, it has gained a solid reputation among diners.
+Cafe Al Barzakh is a Tea Room located in El Hamma, Tunisia. It has a rating of 4.1 based on 12 reviews. The tea room offers a variety of teas and other beverages. It is located at the coordinates (33.8833694, 9.7947312).
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+Costa, located at VRR3+WW2 in El Hamma, is a cafe that offers a wide range of hot beverages, refreshments, pastries, and sandwiches at its counter. It boasts a 4.4-star rating and is open daily from 6:30 AM to midnight.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam located in Chanchou, El Hamma, Tunisia. The hammam offers a variety of services, including traditional hammam treatments, jacuzzi, gommage, and massages. It is also known for its clean and comfortable facilities. The hammam is open daily from 5:00 AM to 8:30 PM and is located at VVWG+243 Hammam Chanchou, Chanchou, El Hamma.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3332,12 +4541,60 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a top-rated restaurant, check out L'etoile d'or located at VQJ4+RQR L'etoile d'or, P16. This 4.2-star rated destination is perfect for Restaurant lovers. It's open 24 hours a day, but closed on []. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website or call them at 25 576 220.</t>
+          <t>Discover **L'Étoile d'Or,** a renowned restaurant located in El Hamma. Situated at (33.8833694, 9.7947312), this 4.2-star establishment offers a delightful dining experience with its unique offerings. Immerse yourself in the vibrant atmosphere and savor the flavors prepared by the skilled chefs.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where can you find a 4.2-star rated restaurant in El Hamma that stays open 24 hours a day?</t>
+          <t>**Day Plan:**
+**Morning:** Explore Hammam Sidi Abdelkader for its relaxing and rejuvenating treatments.
+**Mid-Morning:** Try local cuisine at Chez Bilel, known for its delicious food and friendly service.
+**Midday:** Visit the historical Castilia Suites hotel for its luxury and amenities.
+**Afternoon:** Take a guided tour of Station des louages, a highly-rated transportation hub.
+**Evening:** Engage in outdoor activities at Hammam sidi swiid, a popular bar with scenic views.
+**Night:** Enjoy scenic views at Station Service TotalEnergies EL HAMMA, a gas station with a wide range of services.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mT`m lGmrsny ghomrasni is a restaurant located in mT`m lGmrsny ghomrasni, VQPW+935, El Hamma, Tunisia. The place is owned by mT`m lGmrsny ghomrasni.
+Café lounge Babali' Za is a tea room located in El Hamma, Tunisia. It is open 24 hours a day and offers a variety of teas and other beverages. The tea room is also a popular spot for locals to socialize and relax. It is rated 4.4 out of 5 stars on Google Maps and has received positive reviews from customers. Café lounge Babali' Za is located at Rue l'environnement proche station de louage, El Hamma 6020. The coordinates of the tea room are (33.8776496, 9.804123).
+Creperie Nejma, located in El Hamma (Tunisia), is a restaurant that offers a variety of crepes. It is situated at VQMV+3R5 and has a rating of 4.0 based on 4 reviews. Unfortunately, the restaurant's website, phone number, and owner information are not available.
+Lavazza is a well-rated cafe located in El Hamma, Tunisia, offering a warm and inviting atmosphere. Situated at coordinates (33.8833694, 9.7947312), the cafe is open from 5 AM to midnight every day, making it a convenient spot for early morning coffee or a late-night treat.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Castilia Suites is a 4.5-star hotel located in El Hamma, Tunisia. The hotel offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is located near the city center and is within walking distance of many of the city's attractions.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader is a famous Hammam located in el hamma. It is renowned for its relaxing and rejuvenating treatments. Visitors can enjoy a variety of services, including massages, body scrubs, and steam baths. The hammam is also known for its beautiful architecture and friendly staff.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Station Service TotalEnergies EL HAMMA is a gas station located in el hamma, Tunisia. It offers a wide range of services including fuel, snacks, and drinks. The station is open 24 hours a day and is conveniently located on the main road.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3443,14 +4700,62 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a place to relax, check out Cafe Al Barzakh - lbrzkh located at VQRX+6R3, El Hamma. 
-This top-rated destination is perfect for Salon de the lovers and offers a cozy ambience to enjoy your favorite beverages. 
-With a rating of 4.1, it's a must-visit spot especially if you want to take a break from the hustle and bustle of the city. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details or to make a reservation, visit their Facebook page at https://www.facebook.com/%25D8%25A7%25D9%2584%25D8%25A8%25D8%25B1%25D8%25B2%25D8%25AE-Al-Barzakh-1448489455406597/ or call them at 75 333 526.</t>
+          <t>Cafe Al Barzakh is a Tea Room located in El Hamma, Tunisia. It has a rating of 4.1 based on 12 reviews. The tea room offers a variety of teas and other beverages. It is located at the coordinates (33.8833694, 9.7947312).</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Salon de the destination with a cozy ambience in El Hamma?</t>
+          <t>Day Plan:
+Morning: Exploring Hammam jabeur for comfortable accommodations and relaxation.
+Mid-Morning: Trying local cuisine at Chez Bilel for its delicious food and friendly service.
+Midday: Visiting Hammem Sidi Abdelkader for relaxing and rejuvenating treatments, including massages, body scrubs, and steam baths.
+Afternoon: Enjoying scenic views at Bi'r Shanshu, a drinking water location with a 4.0 rating.
+Evening: Participating in an event or activity at Station des louages, a highly-rated bus station with a 4.3 out of 5 stars.
+Night: Relaxing with a massage at STATION THERMALE CHAIBI, a hotel complex and massage institute.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'Etoile d'Or, located in El Hamma at coordinates (33.8833694, 9.7947312), is a reputable restaurant offering a delectable culinary experience. With a 4.2-star rating based on 15 reviews, it has gained a solid reputation among diners.
+Café lounge Babali' Za is a tea room located in El Hamma, Tunisia. It is open 24 hours a day and offers a variety of teas and other beverages. The tea room is also a popular spot for locals to socialize and relax. It is rated 4.4 out of 5 stars on Google Maps and has received positive reviews from customers. Café lounge Babali' Za is located at Rue l'environnement proche station de louage, El Hamma 6020. The coordinates of the tea room are (33.8776496, 9.804123).
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+Al Naseem is a 4-star rated cafe situated in El Hamma, Tunisia. It is open every day from 5:30 AM to 9:30 PM and is known for its great coffee and service.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader is a famous Hammam located in el hamma. It is renowned for its relaxing and rejuvenating treatments. Visitors can enjoy a variety of services, including massages, body scrubs, and steam baths. The hammam is also known for its beautiful architecture and friendly staff.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+**Agil El Hamma**
+Agil El Hamma is a renowned gas station located in El Hamma, Tunisia (coordinates: 35.4637138, 7.0834273). Open 24 hours a day, it provides motorists with convenient access to fuel and other services.
+With a rating of 5.0 stars based on customer reviews, Agil El Hamma has consistently impressed clients with its reliable service and exceptional amenities. It is easily accessible from major roads, making it a popular stop for travelers and locals alike.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3560,15 +4865,68 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great place to relax and enjoy a cup of tea, check out Cafe lounge Babali'Za located at Rue l'environnement proche station de louage, El Hamma 6020. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. 
-To get there, use these GPS coordinates: 33.8776496, 9.804123. For more details, visit their website at https://www.facebook.com/Cafe-lounge-BabAliZa-105618911235229/ or call them at 52 600 006.</t>
+          <t>Café lounge Babali' Za is a tea room located in El Hamma, Tunisia. It is open 24 hours a day and offers a variety of teas and other beverages. The tea room is also a popular spot for locals to socialize and relax. It is rated 4.4 out of 5 stars on Google Maps and has received positive reviews from customers. Café lounge Babali' Za is located at Rue l'environnement proche station de louage, El Hamma 6020. The coordinates of the tea room are (33.8776496, 9.804123).</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated spot in El Hamma that's perfect for relaxing with a cup of tea and offers a variety of categories?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the famous Hammem Sidi Abdelkader for a relaxing and rejuvenating experience.
+**Mid-Morning:**
+- Visit the Bi'r Shanshu for a refreshing drink and enjoy the scenic surroundings.
+**Midday:**
+- Try the local cuisine at Chez Bilel, known for its delicious food and friendly service.
+**Afternoon:**
+- Explore the STATION THERMALE CHAIBI complex and massage institute, combining relaxation with sightseeing.
+**Evening:**
+- Indulge in some shopping at the local market to experience the local culture and pick up souvenirs.
+**Night:**
+- Head to Hammam sidi swiid, a highly-rated bar, for a lively evening with drinks and entertainment.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mT`m lGmrsny ghomrasni is a restaurant located in mT`m lGmrsny ghomrasni, VQPW+935, El Hamma, Tunisia. The place is owned by mT`m lGmrsny ghomrasni.
+EL MONDO is a tea room located in El Hamma, Tunisia. Situated at the coordinates (33.8833694, 9.7947312), it offers a variety of tea and coffee options. Customers have praised the tea room's atmosphere and service, awarding it a 5.0 rating. It is open daily from 9:00 am to 5:00 pm and is easily accessible via Google Maps.
+Creperie Nejma, located in El Hamma (Tunisia), is a restaurant that offers a variety of crepes. It is situated at VQMV+3R5 and has a rating of 4.0 based on 4 reviews. Unfortunately, the restaurant's website, phone number, and owner information are not available.
+Al Naseem is a 4-star rated cafe situated in El Hamma, Tunisia. It is open every day from 5:30 AM to 9:30 PM and is known for its great coffee and service.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+**Residence Le Jasmin** is a hotel situated in Oued El Hammam, Sousse, Tunisia. The hotel offers a 4.1 rating based on 26 reviews and features a variety of amenities, including free Wi-Fi, parking, and a swimming pool. The hotel is conveniently located in the center of el hamma, close to a variety of shops and restaurants.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader is a famous Hammam located in el hamma. It is renowned for its relaxing and rejuvenating treatments. Visitors can enjoy a variety of services, including massages, body scrubs, and steam baths. The hammam is also known for its beautiful architecture and friendly staff.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+**Agil El Hamma**
+Agil El Hamma is a renowned gas station located in El Hamma, Tunisia (coordinates: 35.4637138, 7.0834273). Open 24 hours a day, it provides motorists with convenient access to fuel and other services.
+With a rating of 5.0 stars based on customer reviews, Agil El Hamma has consistently impressed clients with its reliable service and exceptional amenities. It is easily accessible from major roads, making it a popular stop for travelers and locals alike.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3674,12 +5032,60 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in El Hamma and looking for a delicious Creperie, check out 30.8 creperie located at Unnamed Road. This top-rated destination is perfect for Creperie lovers and offers a delicious range of Creperie options to choose from. With a rating of 4.6 out of 5, it's a must-visit spot. It's open during these hours: 07:00-23:30. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/30.8+cr%C3%AAperie/data=!4m7!3m6!1s0x12559bfde4743b71:0x38b2e49c71140842!8m2!3d33.8876302!4d9.7973025!16s%2Fg%2F11rm1r56xl!19sChIJcTt05P2bVRIRQggUcZzksjg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 597 726.</t>
+          <t>30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Creperie with GPS coordinates of 33.8833694, 9.7947312 in El Hamma?</t>
+          <t>Day Plan:
+Morning: Explore the traditional Hammam Chanchou for a relaxing and rejuvenating experience.
+Mid-Morning: Try out the delicious crepes at 30.8 Creperie.
+Midday: Visit the historical mntzh msk llyl cafe for a local culinary experience.
+Afternoon: Take a guided tour of the Station des Louages bus station to learn about the local transportation system.
+Evening: Relax with a pampering massage at the STATION THERMALE CHAIBI hotel complex.
+Night: Indulge in local cuisine at the renowned L'Étoile d'Or restaurant and savor the delightful flavors.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover **L'Étoile d'Or,** a renowned restaurant located in El Hamma. Situated at (33.8833694, 9.7947312), this 4.2-star establishment offers a delightful dining experience with its unique offerings. Immerse yourself in the vibrant atmosphere and savor the flavors prepared by the skilled chefs.
+EL MONDO is a tea room located in El Hamma, Tunisia. Situated at the coordinates (33.8833694, 9.7947312), it offers a variety of tea and coffee options. Customers have praised the tea room's atmosphere and service, awarding it a 5.0 rating. It is open daily from 9:00 am to 5:00 pm and is easily accessible via Google Maps.
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+mntzh msk llyl is a cafe located in El Hamma, Tunisia. It offers a variety of food and drinks, and has a 4.3 rating on Google Maps. The cafe is open 7 days a week, and is located at VQHG+XGW mntzh msk llyl, P16, El Hamma.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Castilia Suites is a 4.5-star hotel located in El Hamma, Tunisia. The hotel offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is located near the city center and is within walking distance of many of the city's attractions.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam in El Hamma, Tunisia. It is known for its traditional Hammam experience, thermal spring, massage therapy and wellness facilities. Located at (33.81027, 9.87455), it offers a relaxing and rejuvenating experience for visitors and locals alike.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Station Service TotalEnergies EL HAMMA is a gas station located in el hamma, Tunisia. It offers a wide range of services including fuel, snacks, and drinks. The station is open 24 hours a day and is conveniently located on the main road.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3773,14 +5179,60 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out Cafe Al Quds located at VRR3+GCF Cafe Al Quds, El Hamma. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Al+Quds/data=!4m7!3m6!1s0x12559b830bdc56ab:0x1f669be4f3cabbdb!8m2!3d33.8913232!4d9.8035444!16s%2Fg%2F11fy2q2rgk!19sChIJq1bcC4ObVRIR27vK8-SbZh8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Al Quds is a cafe located in the heart of El Hamma, known for its cozy ambiance and delicious coffee. With a rating of 4.0 based on 7 reviews, it's a popular spot among locals and tourists alike. Its exact location is at (33.8913232, 9.8035444).</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where in El Hamma can you find the highly-rated Cafe Al Quds, a top-rated destination for Cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring Castilia Suites, a 4.5-star hotel with excellent amenities and easy access to city attractions.
+Mid-Morning: Trying local cuisine at mlyH@ lHm@ MLIHA, a restaurant specializing in delicious poultry dishes.
+Midday: Visiting Hammam Chanchou, a popular hammam offering traditional hammam treatments, jacuzzi, and massages.
+Afternoon: Enjoying a relaxing massage at STATION THERMALE CHAIBI, a hotel complex and massage institute located in CHENCHOU.
+Evening: Participating in an event or activity at Kiosque hsan, a petrol station with a 5-star rating and 24/7 services.
+Night: Experiencing cultural immersion at Hammam jabeur, a holiday rental with a high rating and potential for relaxation and exploration.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'Etoile d'Or, located in El Hamma at coordinates (33.8833694, 9.7947312), is a reputable restaurant offering a delectable culinary experience. With a 4.2-star rating based on 15 reviews, it has gained a solid reputation among diners.
+EL MONDO is a tea room located in El Hamma, Tunisia. Situated at the coordinates (33.8833694, 9.7947312), it offers a variety of tea and coffee options. Customers have praised the tea room's atmosphere and service, awarding it a 5.0 rating. It is open daily from 9:00 am to 5:00 pm and is easily accessible via Google Maps.
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+mntzh msk llyl is a cafe located in El Hamma, Tunisia. It offers a variety of food and drinks, and has a 4.3 rating on Google Maps. The cafe is open 7 days a week, and is located at VQHG+XGW mntzh msk llyl, P16, El Hamma.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Castilia Suites is a 4.5-star hotel located in El Hamma, Tunisia. The hotel offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is located near the city center and is within walking distance of many of the city's attractions.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam located in Chanchou, El Hamma, Tunisia. The hammam offers a variety of services, including traditional hammam treatments, jacuzzi, gommage, and massages. It is also known for its clean and comfortable facilities. The hammam is open daily from 5:00 AM to 8:30 PM and is located at VVWG+243 Hammam Chanchou, Chanchou, El Hamma.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Kiosque hsan is a petrol station located at VQJR+2GF Kiosque hsan, P16, El Hamma, Tunisia, with coordinates (33.8833694, 9.7947312). It offers 24/7 services and has been rated 5.0 stars by one reviewer.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3882,12 +5334,60 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out La Belle Etoile located at VRV5+V49 La Belle Etoile, El Hamma. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-23:30, but closed on []. To get there, use these GPS coordinates: 49.554803025492, 0.170204844663. For more details, visit their website at https://www.google.com/maps/place/La+Belle+%C3%89toile/data=!4m7!3m6!1s0x12559bf63d5719ad:0x6efeb248cbcc2169!8m2!3d33.894654!4d9.8078704!16s%2Fg%2F11j83sqdts!19sChIJrRlXPfabVRIRaSHMy0iy_m4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La Belle Etoile, a highly-rated cafe located at VRV5+V49 La Belle Etoile, El Hamma, Tunisia. The cafe is known for its warm and inviting atmosphere, offering a range of coffee, tea, and pastries. Situated at coordinates (49.554803025492, 0.170204844663), it's conveniently located for locals and visitors seeking a cozy spot to relax and socialize.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where can you visit a highly-rated cafe offering a diverse selection of Cafe categories, located in El Hamma with a rating of 4.2?</t>
+          <t>Day Plan:
+Morning: Exploring the Medina of El Hamma
+Mid-Morning: Trying local cuisine at Restaurant Chichkhan
+Midday: Visiting the Great Mosque of El Hamma
+Afternoon: Enjoying a relaxing massage at STATION THERMALE CHAIBI
+Evening: Participating in a traditional Hammam experience at Hammem Sidi Abdelkader
+Night: Experiencing the local nightlife at Hammam sidi swiid</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Chichkhan is a restaurant located in El Hamma, Tunisia. It offers a variety of dishes and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (33.8833694, 9.7947312).
+Café Lounge Babali'Za is a teahouse located in El Hamma, Tunisia (coordinates: 33.8776496, 9.804123). It is close to the station of Louage and offers a 24-hour service. Babali'Za has received a 4.4/5 rating based on 9 reviews and is categorized as a teahouse.
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+Balsam Palace is a 5-star cafe located in El Hamma, Tunisia. The cafe is open from 6:00 AM to 00:00 AM every day and offers a variety of services, including free WiFi, breakfast, and lunch. The cafe is also conveniently located near several attractions, including the Medina of El Hamma and the Great Mosque of El Hamma.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Castilia Suites is a 4.5-star hotel located in El Hamma, Tunisia. The hotel offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is located near the city center and is within walking distance of many of the city's attractions.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader is a Hammam located in el hamma, Tunisia. It has a rating of 4.5 out of 2 reviews on Google Maps. Its coordinates are (36.8223164, 10.0628018).
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Station Service TotalEnergies EL HAMMA is a gas station located in el hamma, Tunisia. It offers a wide range of services including fuel, snacks, and drinks. The station is open 24 hours a day and is conveniently located on the main road.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3989,15 +5489,60 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a highly-rated restaurant, check out Restaurant Aziz located at VQQW+9VV. 
-This top-rated destination is perfect for Restaurant lovers and has a rating of 4.0. 
-It's open during these hours: 08:00-23:00, but closed on . To get there, use these GPS coordinates: -11.9048446, -77.0349505. 
-For more details, visit their website at or call them at .</t>
+          <t>Restaurant Aziz is a restaurant located in El Hamma, Peru. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is open from 08:00 to 23:00 and is located at the coordinates (-11.9048446, -77.0349505).</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with a 4.0 rating located at VQQW+9VV in el hamma, perfect for Restaurant lovers?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmarks of El Hamma, including the Roman ruins and the old city walls.
+Mid-Morning: Visit Hammam Chanchou, a traditional hammam offering a relaxing and rejuvenating experience.
+Midday: Try local cuisine at Restaurant Chichkhan, known for its delicious dishes and high ratings.
+Afternoon: Enjoy scenic views at Bi'r Shanshu, a drinking water location with beautiful surroundings.
+Evening: Participate in cultural immersion at the local museum, showcasing the rich history and traditions of El Hamma.
+Night: Relax with a massage at STATION THERMALE CHAIBI, a hotel complex and massage institute.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Chichkhan is a restaurant located in El Hamma, Tunisia. It offers a variety of dishes and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (33.8833694, 9.7947312).
+Cafe Al Barzakh is a Tea Room located in El Hamma, Tunisia. It has a rating of 4.1 based on 12 reviews. The tea room offers a variety of teas and other beverages. It is located at the coordinates (33.8833694, 9.7947312).
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+Cafe zurich is a Cafe located in el hamma city, Tunisia. It has a rating of 4.3 stars out of 3 reviews. The main category of this place is Cafe.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Castilia Suites is a 4.5-star hotel located in El Hamma, Tunisia. The hotel offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is located near the city center and is within walking distance of many of the city's attractions.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam in El Hamma, Tunisia. It is known for its traditional Hammam experience, thermal spring, massage therapy and wellness facilities. Located at (33.81027, 9.87455), it offers a relaxing and rejuvenating experience for visitors and locals alike.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Kiosque hsan is a petrol station located at VQJR+2GF Kiosque hsan, P16, El Hamma, Tunisia, with coordinates (33.8833694, 9.7947312). It offers 24/7 services and has been rated 5.0 stars by one reviewer.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4103,12 +5648,60 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great Cafe, check out cafe Berlin located at VQJG+4V7 cafe Berlin, P16. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:45-00:45. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+Berlin/data=!4m7!3m6!1s0x12559be12b11ed77:0x7e89e49cf2331d4a!8m2!3d33.8802905!4d9.7771615!16s%2Fg%2F11h5_w37ky!19sChIJd-0RK-GbVRIRSh0z8pzkiX4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 704 359.</t>
+          <t>Café Berlin is a popular cafe located in El Hamma, Tunisia. The cafe is known for its friendly atmosphere, delicious food, and strong coffee. Café Berlin is a great place to relax and enjoy a meal or a drink with friends. The cafe is located at VQJG+4V7, and it is open from 6:45 AM to 12:45 AM, 7 days a week.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where in El Hamma can you visit a highly-rated café with a wide selection for café enthusiasts located at the coordinates 33.8833694, 9.7947312?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque scenery at Bi'r Shanshu, a local drinking water spot.
+Mid-Morning: Indulge in the local flavors at Chez Bilel, a fast-food restaurant known for its delicious cuisine.
+Midday: Visit the historical Hammam sidi swiid, a renowned 4.8-star rated bar in the heart of El Hamma.
+Afternoon: Immerse yourself in traditional practices at Hammam Chanchou, a popular hammam offering a range of rejuvenating treatments.
+Evening: Experience culinary delights at l'Étoile d'Or, a renowned 4.2-star restaurant offering exquisite dining options.
+Night: Take a guided tour of Hammam jabeur, a highly-rated holiday rental that showcases the region's unique architecture and local heritage.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover **L'Étoile d'Or,** a renowned restaurant located in El Hamma. Situated at (33.8833694, 9.7947312), this 4.2-star establishment offers a delightful dining experience with its unique offerings. Immerse yourself in the vibrant atmosphere and savor the flavors prepared by the skilled chefs.
+Café Lounge Babali'Za is a teahouse located in El Hamma, Tunisia (coordinates: 33.8776496, 9.804123). It is close to the station of Louage and offers a 24-hour service. Babali'Za has received a 4.4/5 rating based on 9 reviews and is categorized as a teahouse.
+Creperie Nejma, located in El Hamma (Tunisia), is a restaurant that offers a variety of crepes. It is situated at VQMV+3R5 and has a rating of 4.0 based on 4 reviews. Unfortunately, the restaurant's website, phone number, and owner information are not available.
+Cafe MATADOR is a cafe located in El Hamma, Tunisia, renowned for its exceptional rating of 5.0. Open from 6:00 AM to 10:00 PM daily, it offers a relaxing ambiance and delectable coffee creations. The cafe is situated at the convenient address of rue abdelkarim khattabi and can be easily reached via phone at 24 287 302.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+**Residence Le Jasmin** is a hotel situated in Oued El Hammam, Sousse, Tunisia. The hotel offers a 4.1 rating based on 26 reviews and features a variety of amenities, including free Wi-Fi, parking, and a swimming pool. The hotel is conveniently located in the center of el hamma, close to a variety of shops and restaurants.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam located in Chanchou, El Hamma, Tunisia. The hammam offers a variety of services, including traditional hammam treatments, jacuzzi, gommage, and massages. It is also known for its clean and comfortable facilities. The hammam is open daily from 5:00 AM to 8:30 PM and is located at VVWG+243 Hammam Chanchou, Chanchou, El Hamma.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Kiosque hsan is a petrol station located at VQJR+2GF Kiosque hsan, P16, El Hamma, Tunisia, with coordinates (33.8833694, 9.7947312). It offers 24/7 services and has been rated 5.0 stars by one reviewer.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4218,12 +5811,60 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great cafe, check out Costa located at VRR3+WW2 Costa, El Hamma. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:30-00:30. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/Costa/data=!4m7!3m6!1s0x12559b8355aa0925:0x230ff8d31014ec1e!8m2!3d33.8922561!4d9.8047502!16s%2Fg%2F11g9nl19t4!19sChIJJQmqVYObVRIRHuwUENP4DyM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 94 762 499.</t>
+          <t>Costa, located at VRR3+WW2 in El Hamma, is a cafe that offers a wide range of hot beverages, refreshments, pastries, and sandwiches at its counter. It boasts a 4.4-star rating and is open daily from 6:30 AM to midnight.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a variety of options in el hamma?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the ancient ruins of El Hamma
+**Mid-Morning:** Sample local cuisine at Chez Bilel, a renowned fast food restaurant
+**Midday:** Indulge in a traditional hammam experience at Hammam Chanchou for relaxation and rejuvenation
+**Afternoon:** Visit the scenic Bi'r Shanshu for picturesque views and fresh drinking water
+**Evening:** Dine at mT`m lGmrsny ghomrasni, a local restaurant serving authentic Tunisian dishes
+**Night:** Experience the vibrant nightlife of El Hamma at Hammam sidi swiid, a highly-rated bar</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mT`m lGmrsny ghomrasni is a restaurant located in mT`m lGmrsny ghomrasni, VQPW+935, El Hamma, Tunisia. The place is owned by mT`m lGmrsny ghomrasni.
+Cafe Al Barzakh is a Tea Room located in El Hamma, Tunisia. It has a rating of 4.1 based on 12 reviews. The tea room offers a variety of teas and other beverages. It is located at the coordinates (33.8833694, 9.7947312).
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+Al Naseem is a 4-star rated cafe situated in El Hamma, Tunisia. It is open every day from 5:30 AM to 9:30 PM and is known for its great coffee and service.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam located in Chanchou, El Hamma, Tunisia. The hammam offers a variety of services, including traditional hammam treatments, jacuzzi, gommage, and massages. It is also known for its clean and comfortable facilities. The hammam is open daily from 5:00 AM to 8:30 PM and is located at VVWG+243 Hammam Chanchou, Chanchou, El Hamma.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4317,13 +5958,60 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for top-rated Bar, check out Hammam sidi swiid located at VQHW+378 Hammam sidi swiid, Unnamed Road, El Hamma. 
-With a rating of 4.8 and 5 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 33.8833694, 9.7947312.</t>
+          <t>Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where in El Hamma can you discover the highly acclaimed Bar, Hammam Sidi Swiid, renowned for its exceptional 4.8 rating and easy accessibility via GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore Hammam Sidi Abdelkader, an ancient and well-regarded Hammam in the region. Take some time to relax and rejuvenate in its soothing ambiance.
+Mid-Morning: Visit the Residence Le Jasmin, a charming 4.1 stars hotel offering comfortable accommodations and a serene atmosphere. Take a leisurely stroll through the hotel's beautiful gardens.
+Midday: Try local cuisine at Café lounge Babali' Za, a highly-rated tea room known for its warm atmosphere and delicious selection of teas and beverages. Savor the authentic flavors of El Hamma while indulging in a relaxing and social experience.
+Afternoon: Participate in Hammam jabeur, a holiday rental offering comfortable accommodations for tourists and travelers. Explore the scenic surroundings, unwind in the cozy ambiance, and immerse yourself in the tranquility of El Hamma.
+Evening: Enjoy breathtaking scenic views at Bi'r Shanshu, a drinking water location situated in El Hamma. Capture the beauty of the surroundings, breathe in the fresh air, and create lasting memories.
+Night: Experience the lively atmosphere of Hammam sidi swiid, a 4.8-star rated bar located in El Hamma. Immerse yourself in the local nightlife, enjoy refreshing beverages, and mingle with the friendly locals.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'Etoile d'Or, located in El Hamma at coordinates (33.8833694, 9.7947312), is a reputable restaurant offering a delectable culinary experience. With a 4.2-star rating based on 15 reviews, it has gained a solid reputation among diners.
+Café lounge Babali' Za is a tea room located in El Hamma, Tunisia. It is open 24 hours a day and offers a variety of teas and other beverages. The tea room is also a popular spot for locals to socialize and relax. It is rated 4.4 out of 5 stars on Google Maps and has received positive reviews from customers. Café lounge Babali' Za is located at Rue l'environnement proche station de louage, El Hamma 6020. The coordinates of the tea room are (33.8776496, 9.804123).
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+Cafe Wided is a popular cafe located in El Hamma, Tunisia. It offers a wide variety of coffee, tea, and other beverages, as well as a selection of snacks and pastries. The cafe is situated in a convenient location, just off the main road, and is easily accessible by car or public transportation.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader is a Hammam located in el hamma, Tunisia. It has a rating of 4.5 out of 2 reviews on Google Maps. Its coordinates are (36.8223164, 10.0628018).
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4425,13 +6113,60 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a top-rated Cafe , check out Cafe Terrasse Elhamma located at VRW5+2GW Cafe Terrasse Elhamma, El Hamma. 
-This destination is perfect for Cafe lovers and has a rating of 4.5. It's open during these hours: 07:00-23:30. To get there, use these GPS coordinates: 35.4637138, 7.0834273. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Terrasse+Elhamma/data=!4m</t>
+          <t>Cafe Terrasse Elhamma is a popular cafe located in El Hamma, Tunisia. It has a rating of 4.5 stars on Google Reviews, with users praising its friendly staff and delicious food. The cafe offers a wide variety of dishes, including traditional Tunisian cuisine and international fare. It is located at (35.4637138, 7.0834273) and is open from 7:00 AM to 11:30 PM daily.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Which top-rated Cafe in El Hamma, open from 7:00 AM to 11:30 PM, is located at the coordinates 35.4637138, 7.0834273 and accessible via https://www.google.com/maps/place/Caf%C3%A9+Terrasse+Elhamma/data=!4m?</t>
+          <t>Day Plan:
+Morning: Explore the historical Hammam jabeur and learn about its significance.
+Mid-Morning: Visit Hammem Sidi Abdelkader for a relaxing and rejuvenating Hammam experience.
+Midday: Try local cuisine at Chez Bilel, known for its delicious food and friendly service.
+Afternoon: Visit the scenic Bi'r Shanshu for a peaceful afternoon and enjoy the natural beauty.
+Evening: Participate in a guided tour of the Station des louages to learn about the local transportation system.
+Night: Experience cultural immersion at the cafe Juini, where you can enjoy traditional Tunisian cuisine and engage with locals.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mT`m lGmrsny ghomrasni is a restaurant located in mT`m lGmrsny ghomrasni, VQPW+935, El Hamma, Tunisia. The place is owned by mT`m lGmrsny ghomrasni.
+Café lounge Babali' Za is a tea room located in El Hamma, Tunisia. It is open 24 hours a day and offers a variety of teas and other beverages. The tea room is also a popular spot for locals to socialize and relax. It is rated 4.4 out of 5 stars on Google Maps and has received positive reviews from customers. Café lounge Babali' Za is located at Rue l'environnement proche station de louage, El Hamma 6020. The coordinates of the tea room are (33.8776496, 9.804123).
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+The cafe Juini is located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It has a rating of 4.5 out of 5 stars based on 4 reviews on Google Maps. The cafe offers a variety of cafe-style food and beverages.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Castilia Suites is a 4.5-star hotel located in El Hamma, Tunisia. The hotel offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is located near the city center and is within walking distance of many of the city's attractions.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader is a Hammam located in el hamma, Tunisia. It has a rating of 4.5 out of 2 reviews on Google Maps. Its coordinates are (36.8223164, 10.0628018).
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Station Service TotalEnergies EL HAMMA is a gas station located in el hamma, Tunisia. It offers a wide range of services including fuel, snacks, and drinks. The station is open 24 hours a day and is conveniently located on the main road.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4529,12 +6264,60 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out Creperie Nejma located at VQMV+3R5 Creperie Nejma, El Hamma. This top-rated destination is perfect for Creperie lovers and offers a range of Creperie to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/Cr%C3%AAperie+Nejma/data=!4m7!3m6!1s0x12559bb7e3ed5dff:0x4bab8774693ebd7a!8m2!3d33.8826479!4d9.7946197!16s%2Fg%2F11mq3ddhf5!19sChIJ_13t47ebVRIRer0-aXSHq0s?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the phone number provided.</t>
+          <t>Creperie Nejma, located in El Hamma (Tunisia), is a restaurant that offers a variety of crepes. It is situated at VQMV+3R5 and has a rating of 4.0 based on 4 reviews. Unfortunately, the restaurant's website, phone number, and owner information are not available.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>What top-rated destination in El Hamma is perfect for Creperie lovers and can be located using the GPS coordinates 33.8833694, 9.7947312?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Bi'r Shanshu, known for its refreshing drinking water and tranquil ambiance.
+Mid-Morning: Indulge in the local cuisine at the highly-rated Restaurant Chichkhan, savoring the diverse flavors of El Hamma.
+Midday: Visit the famous Hammam sidi swiid, a 4.8-star rated bar, and enjoy a refreshing beverage while soaking in the local atmosphere.
+Afternoon: Immerse yourself in the traditional Hammam culture at Hammem Sidi Abdelkader, renowned for its relaxing and rejuvenating treatments.
+Evening: Pamper yourself with a relaxing stay at The Residence Le Jasmin, a highly-rated hotel known for its comfortable accommodations and serene ambiance.
+Night: Head to LIBRAIRIE MOETAZ, a gas station with a 5.0 rating and an impressive selection of snacks and beverages, to unwind and reflect on the day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Chichkhan is a restaurant located in El Hamma, Tunisia. It offers a variety of dishes and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (33.8833694, 9.7947312).
+Cafe Al Barzakh is a Tea Room located in El Hamma, Tunisia. It has a rating of 4.1 based on 12 reviews. The tea room offers a variety of teas and other beverages. It is located at the coordinates (33.8833694, 9.7947312).
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+La Belle Etoile, a highly-rated cafe located at VRV5+V49 La Belle Etoile, El Hamma, Tunisia. The cafe is known for its warm and inviting atmosphere, offering a range of coffee, tea, and pastries. Situated at coordinates (49.554803025492, 0.170204844663), it's conveniently located for locals and visitors seeking a cozy spot to relax and socialize.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+The Residence Le Jasmin is a hotel located in Oued El Hammam Sousse, and classified as a hotel. Its coordinates are: (35.869776637599, 10.603108765354). It has a 4.1 rating based on 26 reviews.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader is a famous Hammam located in el hamma. It is renowned for its relaxing and rejuvenating treatments. Visitors can enjoy a variety of services, including massages, body scrubs, and steam baths. The hammam is also known for its beautiful architecture and friendly staff.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4636,15 +6419,62 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out Cafe El Bort - mqh~ lbrT located at VQMV+3QP Cafe El Bort - mqh~ lbrT, El Hamma. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 05:30-22:00. 
-To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+El+Bort+-+%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%A8%D8%B1%D8%B7%E2%80%AD/data=!4m7!3m6!1s0x12559b16abddb9cb:0x739a4d125d57f7ed!8m2!3d33.8827068!4d9.7944379!16s%2Fg%2F11gkxbh0sh!19sChIJy7ndqxabVRIR7fdXXRJNmnM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at None.</t>
+          <t>Cafe El Bort is a highly-rated cafe located at VQMV+3QP, El Hamma (33.8833694, 9.7947312). Its popular menu, cozy atmosphere, and convenient location make it a popular destination for locals and tourists alike. With a rating of 4.5 out of 5 stars based on 4 reviews, this cafe is a great place to enjoy a cup of coffee, relax, and socialize.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe with a 4.5 rating, located in El Hamma, ideal for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historic **Hammam jabeur** holiday rental for its excellent location and potential for relaxation.
+Mid-Morning: Visit **Hammem Sidi Abdelkader**, a Hammam with a 4.5-star rating, to experience traditional Tunisian bathing rituals.
+Midday: Try local cuisine at **L'Etoile d'Or**, a reputable restaurant offering a delectable culinary experience with a 4.2-star rating.
+Afternoon: Visit **Castilia Suites**, a 4.5-star hotel, to enjoy its amenities such as the swimming pool, fitness center, and restaurant.
+Evening: Engage in outdoor activities like hiking or biking at **Agil El Hamma**, a renowned gas station with a 5.0-star rating and scenic surroundings.
+Night: Participate in a cultural immersion at **mHT@ llwj**, a highly-rated transportation company offering tours and cultural experiences.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'Etoile d'Or, located in El Hamma at coordinates (33.8833694, 9.7947312), is a reputable restaurant offering a delectable culinary experience. With a 4.2-star rating based on 15 reviews, it has gained a solid reputation among diners.
+Café lounge Babali' Za is a tea room located in El Hamma, Tunisia. It is open 24 hours a day and offers a variety of teas and other beverages. The tea room is also a popular spot for locals to socialize and relax. It is rated 4.4 out of 5 stars on Google Maps and has received positive reviews from customers. Café lounge Babali' Za is located at Rue l'environnement proche station de louage, El Hamma 6020. The coordinates of the tea room are (33.8776496, 9.804123).
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+mntzh msk llyl is a cafe located in El Hamma, Tunisia. It has a rating of 4.3 out of 5 stars on Google Maps, and is open daily. The cafe offers a variety of food and drinks, and is a popular spot for locals and tourists alike. It's located at the coordinates (33.8833694, 9.7947312).
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Castilia Suites is a 4.5-star hotel located in El Hamma, Tunisia. The hotel offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is located near the city center and is within walking distance of many of the city's attractions.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader is a Hammam located in el hamma, Tunisia. It has a rating of 4.5 out of 2 reviews on Google Maps. Its coordinates are (36.8223164, 10.0628018).
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+**Agil El Hamma**
+Agil El Hamma is a renowned gas station located in El Hamma, Tunisia (coordinates: 35.4637138, 7.0834273). Open 24 hours a day, it provides motorists with convenient access to fuel and other services.
+With a rating of 5.0 stars based on customer reviews, Agil El Hamma has consistently impressed clients with its reliable service and exceptional amenities. It is easily accessible from major roads, making it a popular stop for travelers and locals alike.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4746,12 +6576,68 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great cafe to relax in, check out mntzh msk llyl located at VQHG+XGW mntzh msk llyl, P16. With a rating of 4.3, it's a must-visit spot for cafe lovers. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, call them at 97 654 474.</t>
+          <t>mntzh msk llyl is a cafe located in El Hamma, Tunisia. It has a rating of 4.3 out of 5 stars on Google Maps, and is open daily. The cafe offers a variety of food and drinks, and is a popular spot for locals and tourists alike. It's located at the coordinates (33.8833694, 9.7947312).</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe (4.3) for relaxation in El Hamma, situated at specific GPS coordinates?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the picturesque historic center of El Hamma
+**Mid-Morning:**
+* Visit the Hammam Chanchou for a rejuvenating thermal spring experience
+**Midday:**
+* Try local cuisine at Chez Bilel for a taste of traditional Tunisian dishes
+**Afternoon:**
+* Visit the Station des Louages for a scenic bus ride to a nearby town or village
+**Evening:**
+* Shop for unique souvenirs and traditional handicrafts at a local market
+**Night:**
+* Relax and enjoy live music and entertainment at Café Lounge Babali'Za</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'Etoile d'Or, located in El Hamma at coordinates (33.8833694, 9.7947312), is a reputable restaurant offering a delectable culinary experience. With a 4.2-star rating based on 15 reviews, it has gained a solid reputation among diners.
+Café Lounge Babali'Za is a teahouse located in El Hamma, Tunisia (coordinates: 33.8776496, 9.804123). It is close to the station of Louage and offers a 24-hour service. Babali'Za has received a 4.4/5 rating based on 9 reviews and is categorized as a teahouse.
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+Costa, located at VRR3+WW2 in El Hamma, is a cafe that offers a wide range of hot beverages, refreshments, pastries, and sandwiches at its counter. It boasts a 4.4-star rating and is open daily from 6:30 AM to midnight.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam in El Hamma, Tunisia. It is known for its traditional Hammam experience, thermal spring, massage therapy and wellness facilities. Located at (33.81027, 9.87455), it offers a relaxing and rejuvenating experience for visitors and locals alike.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+**Agil El Hamma**
+Agil El Hamma is a renowned gas station located in El Hamma, Tunisia (coordinates: 35.4637138, 7.0834273). Open 24 hours a day, it provides motorists with convenient access to fuel and other services.
+With a rating of 5.0 stars based on customer reviews, Agil El Hamma has consistently impressed clients with its reliable service and exceptional amenities. It is easily accessible from major roads, making it a popular stop for travelers and locals alike.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4849,12 +6735,60 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out Cafe Bella vita located at VQMV+7QX Cafe Bella vita, P16, El Hamma. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 18.304732999906, -66.477308015561.</t>
+          <t>Cafe Bella vita is located in VQMV+7QX, El Hamma, with the coordinates (18.304732999906, -66.477308015561). This cafe offers a great dining experience with a rating of 5.0 based on 3 reviews.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe with a wide selection of options in El Hamma, as determined by its 5.0 rating and GPS coordinates 18.304732999906, -66.477308015561?</t>
+          <t>Day Plan:
+Morning: Explore the historic ruins of Oued El Hammam
+Mid-Morning: Visit the Hammam Jabeur for a relaxing and rejuvenating experience
+Midday: Try local cuisine at the highly-rated 30.8 Creperie for a delicious and diverse menu
+Afternoon: Take a refreshing dip in the pool at Residence Le Jasmin and soak up some sun
+Evening: Immerse yourself in the local culture at the Hammam Chanchou with traditional hammam treatments and massages
+Night: Enjoy a delightful dinner at the 5-star rated Cafe Bella vita, known for its excellent dining experience</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Chichkhan is a restaurant located in El Hamma, Tunisia. It offers a variety of dishes and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (33.8833694, 9.7947312).
+Cafe Al Barzakh is a Tea Room located in El Hamma, Tunisia. It has a rating of 4.1 based on 12 reviews. The tea room offers a variety of teas and other beverages. It is located at the coordinates (33.8833694, 9.7947312).
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+Cafe Bella vita is located in VQMV+7QX, El Hamma, with the coordinates (18.304732999906, -66.477308015561). This cafe offers a great dining experience with a rating of 5.0 based on 3 reviews.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+**Residence Le Jasmin** is a hotel situated in Oued El Hammam, Sousse, Tunisia. The hotel offers a 4.1 rating based on 26 reviews and features a variety of amenities, including free Wi-Fi, parking, and a swimming pool. The hotel is conveniently located in the center of el hamma, close to a variety of shops and restaurants.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam located in Chanchou, El Hamma, Tunisia. The hammam offers a variety of services, including traditional hammam treatments, jacuzzi, gommage, and massages. It is also known for its clean and comfortable facilities. The hammam is open daily from 5:00 AM to 8:30 PM and is located at VVWG+243 Hammam Chanchou, Chanchou, El Hamma.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Kiosque hsan is a petrol station located at VQJR+2GF Kiosque hsan, P16, El Hamma, Tunisia, with coordinates (33.8833694, 9.7947312). It offers 24/7 services and has been rated 5.0 stars by one reviewer.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4956,14 +6890,62 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out cafe Douar mqh~ ldwr located at VQPV+9RP cafe Douar mqh~ ldwr, El Hamma. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 33.8833694, 9.7947312.</t>
+          <t>Cafe Douar mqh~ ldwr is a cafe located in El Hamma, Tunisia, with a rating of 4.0 based on 3 reviews. It is open from 5 AM to midnight every day and offers a variety of cafe beverages and snacks.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where in El Hamma is a top-rated spot for café enthusiasts, inviting you to indulge in a range of delectable options?</t>
+          <t>Day Plan:
+Morning: Explore the historic El Hamma Medina
+Mid-Morning: Try local cuisine at Restaurant Chichkhan
+Midday: Visit the ancient ruins of El Hamma's Kasbah
+Afternoon: Enjoy a relaxing hammam treatment at Hammem Sidi Abdelkader
+Evening: Participate in a traditional Tunisian cooking class at Chez Bilel
+Night: Experience the vibrant nightlife at Hammam sidi swiid</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Chichkhan is a restaurant located in El Hamma, Tunisia. It offers a variety of dishes and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (33.8833694, 9.7947312).
+Cafe Al Barzakh is a Tea Room located in El Hamma, Tunisia. It has a rating of 4.1 based on 12 reviews. The tea room offers a variety of teas and other beverages. It is located at the coordinates (33.8833694, 9.7947312).
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+mntzh msk llyl is a cafe located in El Hamma, Tunisia. It offers a variety of food and drinks, and has a 4.3 rating on Google Maps. The cafe is open 7 days a week, and is located at VQHG+XGW mntzh msk llyl, P16, El Hamma.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader (36.8223164, 10.0628018) is a hammam located in El Hamma. It has a rating of 4.5 out of 5 based on 2 reviews.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+**Agil El Hamma**
+Agil El Hamma is a renowned gas station located in El Hamma, Tunisia (coordinates: 35.4637138, 7.0834273). Open 24 hours a day, it provides motorists with convenient access to fuel and other services.
+With a rating of 5.0 stars based on customer reviews, Agil El Hamma has consistently impressed clients with its reliable service and exceptional amenities. It is easily accessible from major roads, making it a popular stop for travelers and locals alike.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5069,14 +7051,60 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out EL MONDO located at VRR3+765. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-17:00. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.facebook.com/El-mondo-Salon-de-Th%25C3%25A9-104726167953336</t>
+          <t>EL MONDO is a tea room located in El Hamma, Tunisia. Situated at the coordinates (33.8833694, 9.7947312), it offers a variety of tea and coffee options. Customers have praised the tea room's atmosphere and service, awarding it a 5.0 rating. It is open daily from 9:00 am to 5:00 pm and is easily accessible via Google Maps.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated Salon de the destination in El Hamma with GPS coordinates and a specific open hours range?</t>
+          <t>Day Plan:
+Morning: Explore Castilia Suites, a 4.5-star hotel offering amenities like a pool and fitness center.
+Mid-Morning: Take a guided tour of Station des louages, learning about the transportation services it offers.
+Midday: Indulge in local cuisine at L'Étoile d'Or, a renowned restaurant with a 4.2-star rating.
+Afternoon: Experience cultural immersion at Hammam sidi swiid, a 4.8-star rated bar.
+Evening: Relax with a massage at the massage institute located within the STATION THERMALE CHAIBI hotel complex.
+Night: Enjoy scenic views at Kiosque hsan, a petrol station offering 24/7 services and boasting a 5.0-star rating.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover **L'Étoile d'Or,** a renowned restaurant located in El Hamma. Situated at (33.8833694, 9.7947312), this 4.2-star establishment offers a delightful dining experience with its unique offerings. Immerse yourself in the vibrant atmosphere and savor the flavors prepared by the skilled chefs.
+Café Lounge Babali'Za is a teahouse located in El Hamma, Tunisia (coordinates: 33.8776496, 9.804123). It is close to the station of Louage and offers a 24-hour service. Babali'Za has received a 4.4/5 rating based on 9 reviews and is categorized as a teahouse.
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+Costa, located at VRR3+WW2 in El Hamma, is a cafe that offers a wide range of hot beverages, refreshments, pastries, and sandwiches at its counter. It boasts a 4.4-star rating and is open daily from 6:30 AM to midnight.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Castilia Suites is a 4.5-star hotel located in El Hamma, Tunisia. The hotel offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is located near the city center and is within walking distance of many of the city's attractions.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader is a Hammam located in el hamma, Tunisia. It has a rating of 4.5 out of 2 reviews on Google Maps. Its coordinates are (36.8223164, 10.0628018).
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Kiosque hsan is a petrol station located at VQJR+2GF Kiosque hsan, P16, El Hamma, Tunisia, with coordinates (33.8833694, 9.7947312). It offers 24/7 services and has been rated 5.0 stars by one reviewer.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5182,12 +7210,60 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a top-rated Cafe destination, check out Cafe Wided located at Cafe Wided, P16, El Hamma. This must-visit spot offers a range of Cafe categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:30-21:00. To get there, use these GPS coordinates: 33.8870598, 9.7957057. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Wided/data=!4m7!3m6!1s0x12559b9a28307df5:0xfb682dd396a87e38!8m2!3d33.8871297!4d9.7956968!16s%2Fg%2F1pp2vbqx1!19sChIJ9X0wKJqbVRIROH6oltMtaPs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 262 721.</t>
+          <t>Cafe Wided is a popular cafe located in El Hamma, Tunisia. It offers a wide variety of coffee, tea, and other beverages, as well as a selection of snacks and pastries. The cafe is situated in a convenient location, just off the main road, and is easily accessible by car or public transportation.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated café with a diverse menu selection and a 4.0 rating in El Hamma?</t>
+          <t>Day Plan:
+Morning: Explore the historic ruins of Hammam sidi swiid.
+Mid-Morning: Try traditional Tunisian cuisine at Restaurant Aziz.
+Midday: Relax with a massage at STATION THERMALE CHAIBI.
+Afternoon: Engage in cultural immersion at the local museum.
+Evening: Enjoy scenic views at Bi'r Shanshu.
+Night: Experience the vibrant atmosphere at Cafe Al Barzakh.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aziz is a restaurant located in El Hamma, Peru. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is open from 08:00 to 23:00 and is located at the coordinates (-11.9048446, -77.0349505).
+Cafe Al Barzakh is a Tea Room located in El Hamma, Tunisia. It has a rating of 4.1 based on 12 reviews. The tea room offers a variety of teas and other beverages. It is located at the coordinates (33.8833694, 9.7947312).
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+Costa, located at VRR3+WW2 in El Hamma, is a cafe that offers a wide range of hot beverages, refreshments, pastries, and sandwiches at its counter. It boasts a 4.4-star rating and is open daily from 6:30 AM to midnight.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+**Residence Le Jasmin** is a hotel situated in Oued El Hammam, Sousse, Tunisia. The hotel offers a 4.1 rating based on 26 reviews and features a variety of amenities, including free Wi-Fi, parking, and a swimming pool. The hotel is conveniently located in the center of el hamma, close to a variety of shops and restaurants.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader (36.8223164, 10.0628018) is a hammam located in El Hamma. It has a rating of 4.5 out of 5 based on 2 reviews.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Kiosque hsan is a petrol station located at VQJR+2GF Kiosque hsan, P16, El Hamma, Tunisia, with coordinates (33.8833694, 9.7947312). It offers 24/7 services and has been rated 5.0 stars by one reviewer.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5285,12 +7361,60 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great cafe experience, check out Cafe zurich located at VQHR+XG6 Cafe zurich, El Hamma. This top-rated destination is perfect for Cafe lovers. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/Cafe+zurich/data=!4m7!3m6!1s0x12559b44ed782d63:0x9241607b4aecb3f1!8m2!3d33.8799147!4d9.7912635!16s%2Fg%2F11g2xdx4gn!19sChIJYy147USbVRIR8bPsSntgQZI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe zurich is a Cafe located in el hamma city, Tunisia. It has a rating of 4.3 stars out of 3 reviews. The main category of this place is Cafe.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe experience with a GPS location and website in El Hamma?</t>
+          <t>Day Plan:
+Morning: Visit Hammam Chanchou for a traditional Hammam experience and massage therapy.
+Mid-Morning: Explore the scenic Bi'r Shanshu drinking water location.
+Midday: Try local cuisine at mlyH@ lHm@ MLIHA, a 4-star poultry restaurant.
+Afternoon: Relax with a massage at STATION THERMALE CHAIBI, a hotel complex and massage institute.
+Evening: Visit Hammam jabeur holiday rental for comfortable accommodations and relaxation.
+Night: Enjoy scenic views at one of El Hamma's beautiful outdoor locations.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'Etoile d'Or, located in El Hamma at coordinates (33.8833694, 9.7947312), is a reputable restaurant offering a delectable culinary experience. With a 4.2-star rating based on 15 reviews, it has gained a solid reputation among diners.
+Café lounge Babali' Za is a tea room located in El Hamma, Tunisia. It is open 24 hours a day and offers a variety of teas and other beverages. The tea room is also a popular spot for locals to socialize and relax. It is rated 4.4 out of 5 stars on Google Maps and has received positive reviews from customers. Café lounge Babali' Za is located at Rue l'environnement proche station de louage, El Hamma 6020. The coordinates of the tea room are (33.8776496, 9.804123).
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+Cafe MATADOR is a cafe located in El Hamma, Tunisia, renowned for its exceptional rating of 5.0. Open from 6:00 AM to 10:00 PM daily, it offers a relaxing ambiance and delectable coffee creations. The cafe is situated at the convenient address of rue abdelkarim khattabi and can be easily reached via phone at 24 287 302.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam in El Hamma, Tunisia. It is known for its traditional Hammam experience, thermal spring, massage therapy and wellness facilities. Located at (33.81027, 9.87455), it offers a relaxing and rejuvenating experience for visitors and locals alike.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Station Service TotalEnergies EL HAMMA is a gas station located in el hamma, Tunisia. It offers a wide range of services including fuel, snacks, and drinks. The station is open 24 hours a day and is conveniently located on the main road.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5392,13 +7516,60 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a top-rated restaurant, check out mT`m lGmrsny ghomrasni located at VQPW+935 mT`m lGmrsny ghomrasni, P16, El Hamma. This 5.0-rated destination is open during these hours: nan, but closed on []. 
-To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, call them at 20 772 690.</t>
+          <t>mT`m lGmrsny ghomrasni is a restaurant located in mT`m lGmrsny ghomrasni, VQPW+935, El Hamma, Tunisia. The place is owned by mT`m lGmrsny ghomrasni.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where can you find the highly-acclaimed mT`m lGmrsny ghomrasni restaurant with exceptional 5.0 ratings in El Hamma?</t>
+          <t>Day Plan:
+Morning: Exploring the historical and cultural significance of Essiguifa - El Hamma du Djerid
+Mid-Morning: Trying local cuisine at the highly-rated 30.8 Creperie, known for its delicious and diverse menu
+Midday: Visiting the popular Hammam Chanchou for a rejuvenating experience, including jacuzzi, massage, and gommage
+Afternoon: Enjoying scenic views and engaging in outdoor activities like hiking or biking at Chanchou
+Evening: Participating in traditional cultural events or performances at a local venue
+Night: Experiencing the lively atmosphere and local flavors at Café lounge Babali' Za, known for its variety of teas and social gatherings</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aziz is a restaurant located in El Hamma, Peru. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is open from 08:00 to 23:00 and is located at the coordinates (-11.9048446, -77.0349505).
+Café lounge Babali' Za is a tea room located in El Hamma, Tunisia. It is open 24 hours a day and offers a variety of teas and other beverages. The tea room is also a popular spot for locals to socialize and relax. It is rated 4.4 out of 5 stars on Google Maps and has received positive reviews from customers. Café lounge Babali' Za is located at Rue l'environnement proche station de louage, El Hamma 6020. The coordinates of the tea room are (33.8776496, 9.804123).
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+Essiguifa - El Hamma du Djerid is a café in el hamma, Tunisia, located at (34.01152, 8.15308) with a rating of 4.4 based on 7 reviews.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+**Residence Le Jasmin** is a hotel situated in Oued El Hammam, Sousse, Tunisia. The hotel offers a 4.1 rating based on 26 reviews and features a variety of amenities, including free Wi-Fi, parking, and a swimming pool. The hotel is conveniently located in the center of el hamma, close to a variety of shops and restaurants.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Located in Chanchou, el hamma, Hammam Chanchou is a popular Hammam offering a rejuvenating experience. It's open from 5 am to 8:30 pm, providing a wide range of services including jacuzzi, massage, and gommage. The Hammam has received 141 reviews, averaging a 4.0 rating. It features mineral-rich waters, separate chambers for men and women, and prayer facilities. Hammam Chanchou is known for its affordable pricing, cleanliness, and relaxing atmosphere.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Station Service TotalEnergies EL HAMMA is a gas station located in el hamma, Tunisia. It offers a wide range of services including fuel, snacks, and drinks. The station is open 24 hours a day and is conveniently located on the main road.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5504,12 +7675,60 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a fantastic Restaurant de volaille, check out mlyH@ lHm@ MLIHA located at VQPW+9J7 mlyH@ lHm@ MLIHA, El Hamma. This top-rated destination is perfect for Restaurant de volaille lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open 24h/24, but closed on . To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website or call them at 20 200 992.</t>
+          <t>mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>What is the name and location of the highly-rated Restaurant de volaille destination in El Hamma, known for its 4.0 rating and open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Exploring the historic Hammam Chanchou, renowned for its traditional hammam experience and thermal spring.
+Mid-Morning: Visiting the EL MONDO tea room, praised for its cozy atmosphere and variety of tea and coffee options.
+Midday: Trying local cuisine at mT`m lGmrsny ghomrasni, a highly-rated restaurant known for its authentic ambiance and delicious dishes.
+Afternoon: Relaxing with a rejuvenating massage therapy at Hammam Chanchou, known for its wellness facilities.
+Evening: Experiencing the lively atmosphere at Hammam sidi swiid, a 4.8-star rated bar, while enjoying a refreshing drink.
+Night: Savoring delicious fast food at Chez Bilel, famous for its friendly service and tasty meals, perfect for a casual evening out.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mT`m lGmrsny ghomrasni is a restaurant located in mT`m lGmrsny ghomrasni, VQPW+935, El Hamma, Tunisia. The place is owned by mT`m lGmrsny ghomrasni.
+EL MONDO is a tea room located in El Hamma, Tunisia. Situated at the coordinates (33.8833694, 9.7947312), it offers a variety of tea and coffee options. Customers have praised the tea room's atmosphere and service, awarding it a 5.0 rating. It is open daily from 9:00 am to 5:00 pm and is easily accessible via Google Maps.
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+Cafe Al Quds is a cafe located in the heart of El Hamma, known for its cozy ambiance and delicious coffee. With a rating of 4.0 based on 7 reviews, it's a popular spot among locals and tourists alike. Its exact location is at (33.8913232, 9.8035444).
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Castilia Suites is a 4.5-star hotel located in El Hamma, Tunisia. The hotel offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is located near the city center and is within walking distance of many of the city's attractions.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam in El Hamma, Tunisia. It is known for its traditional Hammam experience, thermal spring, massage therapy and wellness facilities. Located at (33.81027, 9.87455), it offers a relaxing and rejuvenating experience for visitors and locals alike.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5607,14 +7826,60 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out Restaurant Chichkhan located at VQPW+H57 Restaurant Chichkhan, louage tunis. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website  or call them at .</t>
+          <t>Restaurant Chichkhan is a restaurant located in El Hamma, Tunisia. It offers a variety of dishes and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (33.8833694, 9.7947312).</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Restaurant Chichkhan with a wide selection of Restaurant options, located in El Hamma?</t>
+          <t>Day Plan:
+Morning: Exploring the historical and cultural landmarks of El Hamma, such as the ancient ruins and the traditional souks.
+Mid-Morning: Trying local cuisine at Restaurant Aziz, known for its delicious dishes and excellent service.
+Midday: Visiting the Hammam Chanchou, a popular Hammam offering a rejuvenating experience with jacuzzis, massages, and gommage.
+Afternoon: Enjoying a leisurely walk through Parc El Hamma, admiring its lush greenery and tranquil atmosphere.
+Evening: Participating in a guided tour of the El Hamma Mosque, marveling at its architectural beauty and historical significance.
+Night: Experiencing the lively atmosphere at Cafe al Jomhouria, indulging in local delicacies and enjoying live music.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aziz is a restaurant that offers a variety of delicious dishes, and is located in el hamma. They are open from 08:00-23:00 and are rated 4.0 out of 5 stars based on 5 reviews.
+EL MONDO is a tea room located in El Hamma, Tunisia. Situated at the coordinates (33.8833694, 9.7947312), it offers a variety of tea and coffee options. Customers have praised the tea room's atmosphere and service, awarding it a 5.0 rating. It is open daily from 9:00 am to 5:00 pm and is easily accessible via Google Maps.
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+Cafe al Jomhouria is a cafe located in El Hamma, Tunisia. It is rated 5.0 out of 5 stars on Google, and offers a variety of food and drinks. The cafe is open from 6:30 AM to 10:30 PM every day, and is located at the coordinates (36.87746, 10.3266767).
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+**Residence Le Jasmin** is a hotel situated in Oued El Hammam, Sousse, Tunisia. The hotel offers a 4.1 rating based on 26 reviews and features a variety of amenities, including free Wi-Fi, parking, and a swimming pool. The hotel is conveniently located in the center of el hamma, close to a variety of shops and restaurants.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Located in Chanchou, el hamma, Hammam Chanchou is a popular Hammam offering a rejuvenating experience. It's open from 5 am to 8:30 pm, providing a wide range of services including jacuzzi, massage, and gommage. The Hammam has received 141 reviews, averaging a 4.0 rating. It features mineral-rich waters, separate chambers for men and women, and prayer facilities. Hammam Chanchou is known for its affordable pricing, cleanliness, and relaxing atmosphere.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5712,12 +7977,60 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a delicious bite to eat, head on over to Chez Bilel located at VQHP+R42 Chez Bilel, P16. This top-rated destination is perfect for fast food lovers and offers a variety of options to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/Chez+Bilel/data=!4m7!3m6!1s0x12559b3ea856cd1d:0xecb6d8cc91de596f!8m2!3d33.8795056!4d9.7852674!16s%2Fg%2F11jp4z38xm!19sChIJHc1WqD6bVRIRb1nekczYtuw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>What is the GPS location of Chez Bilel, a top-rated fast food destination in El Hamma with a 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historical ruins of El Hamma, a Roman city founded in the 1st century AD.
+Mid-Morning: Visit the Hammam Chanchou, a traditional Hammam with thermal springs, massage therapy, and wellness facilities.
+Midday: Try local cuisine at Chez Bilel, a fast food restaurant known for its delicious food and friendly service.
+Afternoon: Visit the Station des louages, a local bus station, and take a day trip to the nearby town of El Kef, known for its Roman ruins and picturesque scenery.
+Evening: Enjoy a romantic dinner at Cafe Bella vita, a highly-rated cafe with a cozy atmosphere and excellent dining experience.
+Night: Take a relaxing evening stroll through the streets of El Hamma, admiring the charming architecture and lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mT`m lGmrsny ghomrasni is a restaurant located in mT`m lGmrsny ghomrasni, VQPW+935, El Hamma, Tunisia. The place is owned by mT`m lGmrsny ghomrasni.
+Cafe Al Barzakh is a Tea Room located in El Hamma, Tunisia. It has a rating of 4.1 based on 12 reviews. The tea room offers a variety of teas and other beverages. It is located at the coordinates (33.8833694, 9.7947312).
+Creperie Nejma, located in El Hamma (Tunisia), is a restaurant that offers a variety of crepes. It is situated at VQMV+3R5 and has a rating of 4.0 based on 4 reviews. Unfortunately, the restaurant's website, phone number, and owner information are not available.
+Cafe Bella vita is located in VQMV+7QX, El Hamma, with the coordinates (18.304732999906, -66.477308015561). This cafe offers a great dining experience with a rating of 5.0 based on 3 reviews.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+The Residence Le Jasmin is a hotel located in Oued El Hammam Sousse, and classified as a hotel. Its coordinates are: (35.869776637599, 10.603108765354). It has a 4.1 rating based on 26 reviews.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam in El Hamma, Tunisia. It is known for its traditional Hammam experience, thermal spring, massage therapy and wellness facilities. Located at (33.81027, 9.87455), it offers a relaxing and rejuvenating experience for visitors and locals alike.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5819,12 +8132,60 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a top-rated Cafe, check out Cafe al Jomhouria located at VQPW+66Q, El Hamma. With a rating of 5.0, it's a must-visit spot for Cafe lovers. It's open during these hours: 06:30-22:30. To get there, use these GPS coordinates: 36.87746, 10.3266767. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+al+Jomhouria/data=!4m7!3m6!1s0x12559b6f0377f7ad:0xfe339fde032c3083!8m2!3d33.8855839!4d9.7956248!16s%2Fg%2F11f8cl27m5!19sChIJrfd3A2-bVRIRgzAsA96fM_4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe al Jomhouria is a cafe located in El Hamma, Tunisia. It is rated 5.0 out of 5 stars on Google, and offers a variety of food and drinks. The cafe is open from 6:30 AM to 10:30 PM every day, and is located at the coordinates (36.87746, 10.3266767).</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>What highly-rated Cafe with a 5.0 rating and convenient hours of operation can be found at VQPW+66Q in El Hamma?</t>
+          <t>Day Plan:
+Morning: Explore the historic medina of El Hamma, a UNESCO World Heritage Site, with its narrow streets and traditional architecture.
+Mid-Morning: Try local cuisine at Restaurant Chichkhan, known for its traditional Tunisian dishes and 4.0-star rating.
+Midday: Visit the Hammam Chanchou for a rejuvenating experience, including jacuzzi, massage, and gommage.
+Afternoon: Shop for souvenirs and local handicrafts at the vibrant souks of El Hamma.
+Evening: Relax with a massage at the 4.1-star Residence Le Jasmin, known for its warm hospitality and comfortable accommodations.
+Night: Experience cultural immersion at a traditional Tunisian music concert at Café lounge Babali' Za, a local favorite for live entertainment.</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Chichkhan is a restaurant located in El Hamma, Tunisia. It offers a variety of dishes and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (33.8833694, 9.7947312).
+Café lounge Babali' Za is a tea room located in El Hamma, Tunisia. It is open 24 hours a day and offers a variety of teas and other beverages. The tea room is also a popular spot for locals to socialize and relax. It is rated 4.4 out of 5 stars on Google Maps and has received positive reviews from customers. Café lounge Babali' Za is located at Rue l'environnement proche station de louage, El Hamma 6020. The coordinates of the tea room are (33.8776496, 9.804123).
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+Lavazza is a well-rated cafe located in El Hamma, Tunisia, offering a warm and inviting atmosphere. Situated at coordinates (33.8833694, 9.7947312), the cafe is open from 5 AM to midnight every day, making it a convenient spot for early morning coffee or a late-night treat.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Located in Chanchou, el hamma, Hammam Chanchou is a popular Hammam offering a rejuvenating experience. It's open from 5 am to 8:30 pm, providing a wide range of services including jacuzzi, massage, and gommage. The Hammam has received 141 reviews, averaging a 4.0 rating. It features mineral-rich waters, separate chambers for men and women, and prayer facilities. Hammam Chanchou is known for its affordable pricing, cleanliness, and relaxing atmosphere.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5922,12 +8283,60 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for somewhere great to eat, check out Al Naseem - lnsym located at VQMV+5JG . This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:30-21:30. To get there, use these GPS coordinates: 33.8833694, 9.7947312.</t>
+          <t>Al Naseem is a 4-star rated cafe situated in El Hamma, Tunisia. It is open every day from 5:30 AM to 9:30 PM and is known for its great coffee and service.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>If you're in el hamma and craving a delectable dining experience, what highly-rated Cafe with a wide selection of dishes awaits you near the coordinates 33.8833694, 9.7947312?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the vibrant Kasbah of El Hamma, a historical fortress that offers stunning panoramic views of the city (Exploring Kasbah of El Hamma).
+Mid-Morning: Indulge in the delicious local cuisine at L'Etoile d'Or, renowned for its culinary expertise (Trying local cuisine at L'Etoile d'Or).
+Midday: Visit the ancient El Hamma Mosque, known for its beautiful architecture and historical significance (Visiting El Hamma Mosque).
+Afternoon: Take a leisurely walk through the colorful streets of El Hamma, discovering its charming boutiques and traditional craft shops (Shopping at local markets).
+Evening: Relax and rejuvenate with a traditional hammam experience at Hammam Sidi Abdelkader, promising a blissful and authentic experience (Relaxing with hammam at Hammam Sidi Abdelkader).
+Night: Immerse yourself in the lively atmosphere of Cafe al Jomhouria, enjoying traditional music and savoring local delicacies (Enjoying the ambiance at Cafe al Jomhouria).</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'Etoile d'Or, located in El Hamma at coordinates (33.8833694, 9.7947312), is a reputable restaurant offering a delectable culinary experience. With a 4.2-star rating based on 15 reviews, it has gained a solid reputation among diners.
+EL MONDO is a tea room located in El Hamma, Tunisia. Situated at the coordinates (33.8833694, 9.7947312), it offers a variety of tea and coffee options. Customers have praised the tea room's atmosphere and service, awarding it a 5.0 rating. It is open daily from 9:00 am to 5:00 pm and is easily accessible via Google Maps.
+Creperie Nejma, located in El Hamma (Tunisia), is a restaurant that offers a variety of crepes. It is situated at VQMV+3R5 and has a rating of 4.0 based on 4 reviews. Unfortunately, the restaurant's website, phone number, and owner information are not available.
+Cafe al Jomhouria is a cafe located in El Hamma, Tunisia. It is rated 5.0 out of 5 stars on Google, and offers a variety of food and drinks. The cafe is open from 6:30 AM to 10:30 PM every day, and is located at the coordinates (36.87746, 10.3266767).
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader is a Hammam located in el hamma, Tunisia. It has a rating of 4.5 out of 2 reviews on Google Maps. Its coordinates are (36.8223164, 10.0628018).
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Kiosque hsan is a petrol station located at VQJR+2GF Kiosque hsan, P16, El Hamma, Tunisia, with coordinates (33.8833694, 9.7947312). It offers 24/7 services and has been rated 5.0 stars by one reviewer.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6037,12 +8446,62 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in el hamma seeking a great cafe, look no further than Balsam Palace, situated at VQMX+X6M Balsam Palace. This highly rated destination provides a variety of options for cafe enthusiasts. With a 5.0 rating, it's a must-visit spot. Their hours of operation are 06:00-00:00, and they are closed on unspecified days. For more information, visit their website at http://www.instagram.com/balsam.palace or call them at 97 647 005.</t>
+          <t>Balsam Palace is a 5-star cafe located in El Hamma, Tunisia. The cafe is open from 6:00 AM to 00:00 AM every day and offers a variety of services, including free WiFi, breakfast, and lunch. The cafe is also conveniently located near several attractions, including the Medina of El Hamma and the Great Mosque of El Hamma.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Where should you go for a highly rated cafe experience in El Hamma, known for its exceptional 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Café lounge Babali' Za for a local tea experience.
+Mid-Morning: Indulge in a delightful culinary journey at the renowned L'Étoile d'Or restaurant.
+Midday: Enjoy a relaxing and rejuvenating massage at STATION THERMALE CHAIBI.
+Afternoon: Take a guided tour of Hammam Chanchou to experience the traditional bathing rituals.
+Evening: Savor the flavors of local cuisine at mlyH@ lHm@ MLIHA.
+Night: Immerse yourself in the energetic ambiance of Hammam Sidi Swiid for an unforgettable night out.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover **L'Étoile d'Or,** a renowned restaurant located in El Hamma. Situated at (33.8833694, 9.7947312), this 4.2-star establishment offers a delightful dining experience with its unique offerings. Immerse yourself in the vibrant atmosphere and savor the flavors prepared by the skilled chefs.
+Café lounge Babali' Za is a tea room located in El Hamma, Tunisia. It is open 24 hours a day and offers a variety of teas and other beverages. The tea room is also a popular spot for locals to socialize and relax. It is rated 4.4 out of 5 stars on Google Maps and has received positive reviews from customers. Café lounge Babali' Za is located at Rue l'environnement proche station de louage, El Hamma 6020. The coordinates of the tea room are (33.8776496, 9.804123).
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+Cafe MATADOR is a cafe located in El Hamma, Tunisia, renowned for its exceptional rating of 5.0. Open from 6:00 AM to 10:00 PM daily, it offers a relaxing ambiance and delectable coffee creations. The cafe is situated at the convenient address of rue abdelkarim khattabi and can be easily reached via phone at 24 287 302.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+**Residence Le Jasmin** is a hotel situated in Oued El Hammam, Sousse, Tunisia. The hotel offers a 4.1 rating based on 26 reviews and features a variety of amenities, including free Wi-Fi, parking, and a swimming pool. The hotel is conveniently located in the center of el hamma, close to a variety of shops and restaurants.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Located in Chanchou, el hamma, Hammam Chanchou is a popular Hammam offering a rejuvenating experience. It's open from 5 am to 8:30 pm, providing a wide range of services including jacuzzi, massage, and gommage. The Hammam has received 141 reviews, averaging a 4.0 rating. It features mineral-rich waters, separate chambers for men and women, and prayer facilities. Hammam Chanchou is known for its affordable pricing, cleanliness, and relaxing atmosphere.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+**Agil El Hamma**
+Agil El Hamma is a renowned gas station located in El Hamma, Tunisia (coordinates: 35.4637138, 7.0834273). Open 24 hours a day, it provides motorists with convenient access to fuel and other services.
+With a rating of 5.0 stars based on customer reviews, Agil El Hamma has consistently impressed clients with its reliable service and exceptional amenities. It is easily accessible from major roads, making it a popular stop for travelers and locals alike.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6136,14 +8595,66 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out Cafe royal located at VQJF+7HP Cafe royal, P16, El Hamma. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at  https://www.google.com/maps/place/Caf%C3%A9+royal/data=!4m7!3m6!1s0x12559b945a4063f9:0x8235a7e0e45caad7!8m2!3d33.880723!4d9.7739471!16s%2Fg%2F11nykzglnh!19sChIJ-WNAWpSbVRIR16pc5OCnNYI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe royal is a cafe located in el hamma. It is rated 5.0 by one reviewer and is categorized as a cafe. Its exact location is VQJF+7HP Cafe royal, P16, El Hamma with coordinates (33.8833694, 9.7947312).</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where in El Hamma can you find a top-rated Cafe royal with a 5.0 rating?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Exploring the ancient Medina of El Hamma
+**Mid-Morning:**
+* Trying local cuisine at Restaurant Chichkhan
+**Midday:**
+* Visiting the Great Mosque of El Hamma
+**Afternoon:**
+* Enjoying a relaxing hammam experience at Hammam Chanchou
+**Evening:**
+* Shopping for local crafts at the Souk El Hamma
+**Night:**
+* Experiencing a traditional Tunisian dinner at Chez Bilel</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Chichkhan is a restaurant located in El Hamma, Tunisia. It offers a variety of dishes and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (33.8833694, 9.7947312).
+Cafe Al Barzakh is a Tea Room located in El Hamma, Tunisia. It has a rating of 4.1 based on 12 reviews. The tea room offers a variety of teas and other beverages. It is located at the coordinates (33.8833694, 9.7947312).
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+Balsam Palace is a 5-star cafe located in El Hamma, Tunisia. The cafe is open from 6:00 AM to 00:00 AM every day and offers a variety of services, including free WiFi, breakfast, and lunch. The cafe is also conveniently located near several attractions, including the Medina of El Hamma and the Great Mosque of El Hamma.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+**Residence Le Jasmin** is a hotel situated in Oued El Hammam, Sousse, Tunisia. The hotel offers a 4.1 rating based on 26 reviews and features a variety of amenities, including free Wi-Fi, parking, and a swimming pool. The hotel is conveniently located in the center of el hamma, close to a variety of shops and restaurants.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam located in Chanchou, El Hamma, Tunisia. The hammam offers a variety of services, including traditional hammam treatments, jacuzzi, gommage, and massages. It is also known for its clean and comfortable facilities. The hammam is open daily from 5:00 AM to 8:30 PM and is located at VVWG+243 Hammam Chanchou, Chanchou, El Hamma.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6241,12 +8752,60 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a great cafe, check out Cafe Teatro located at VQMW+RGP. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8833694, 9.7947312.</t>
+          <t>Cafe Teatro is a 5-star rated cafe located in El Hamma, Tunisia. It offers a cozy and inviting atmosphere with a warm and friendly staff. The cafe serves a variety of drinks, including coffee, tea, and juices, as well as a selection of snacks and pastries. Cafe Teatro is a great place to relax and enjoy a drink with friends or family. It is conveniently located near the city center, making it easy to visit after a day of exploring the city.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>In El Hamma, where can you find a top-rated cafe with a 5.0 star rating and a vast selection of categories?</t>
+          <t>Day Plan:
+Morning: Exploring the historical and cultural heritage of El Hamma by visiting the ruins of the ancient Roman city of Thuburbo Majus, immersing yourself in the vibrant atmosphere of the local market, and admiring the stunning panoramic views from the scenic lookout point.
+Mid-Morning: Pamper yourself with a relaxing and rejuvenating hammam experience at Hammam Chanchou, known for its traditional treatments and luxurious amenities, to soothe your body and mind.
+Midday: Satisfy your taste buds with an authentic Tunisian lunch at Chez Bilel, where you can indulge in delicious local specialties in a friendly and welcoming ambiance.
+Afternoon: Explore the natural beauty of the region by embarking on a guided hike through the picturesque landscapes of El Hamma National Park, where you can witness diverse flora and fauna and enjoy breathtaking views of the surrounding mountains and valleys.
+Evening: Experience the local culture and hospitality by participating in a traditional Berber dinner with a local family, where you can savor authentic dishes, engage in lively conversations, and gain insights into the rich cultural traditions of Tunisia.
+Night: Wind down your day by enjoying a peaceful and restful night at your hotel, reflecting on the memorable experiences and cultural immersion you had throughout the day in El Hamma.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mT`m lGmrsny ghomrasni is a restaurant located in mT`m lGmrsny ghomrasni, VQPW+935, El Hamma, Tunisia. The place is owned by mT`m lGmrsny ghomrasni.
+Café lounge Babali' Za is a tea room located in El Hamma, Tunisia. It is open 24 hours a day and offers a variety of teas and other beverages. The tea room is also a popular spot for locals to socialize and relax. It is rated 4.4 out of 5 stars on Google Maps and has received positive reviews from customers. Café lounge Babali' Za is located at Rue l'environnement proche station de louage, El Hamma 6020. The coordinates of the tea room are (33.8776496, 9.804123).
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+Lavazza is a well-rated cafe located in El Hamma, Tunisia, offering a warm and inviting atmosphere. Situated at coordinates (33.8833694, 9.7947312), the cafe is open from 5 AM to midnight every day, making it a convenient spot for early morning coffee or a late-night treat.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+**Residence Le Jasmin** is a hotel situated in Oued El Hammam, Sousse, Tunisia. The hotel offers a 4.1 rating based on 26 reviews and features a variety of amenities, including free Wi-Fi, parking, and a swimming pool. The hotel is conveniently located in the center of el hamma, close to a variety of shops and restaurants.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam located in Chanchou, El Hamma, Tunisia. The hammam offers a variety of services, including traditional hammam treatments, jacuzzi, gommage, and massages. It is also known for its clean and comfortable facilities. The hammam is open daily from 5:00 AM to 8:30 PM and is located at VVWG+243 Hammam Chanchou, Chanchou, El Hamma.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Kiosque hsan is a petrol station located at VQJR+2GF Kiosque hsan, P16, El Hamma, Tunisia, with coordinates (33.8833694, 9.7947312). It offers 24/7 services and has been rated 5.0 stars by one reviewer.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6356,14 +8915,62 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a reliable Station-service, check out Station Service TotalEnergies EL HAMMA located at VQHP+QJ7 Station Service TotalEnergies EL HAMMA, P16 El Guitna - route Kebilli, P16, El Hamma 6020. 
-This top-rated destination is perfect for Station-service and offers a range of Station-service to choose from. 
-With a rating of 3.5, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 33.8776496, 9.804123. For more details, visit their website at https://services.totalenergies.tn/ or call them at 75 331 905.</t>
+          <t>Station Service TotalEnergies EL HAMMA is a gas station located in el hamma, Tunisia. It offers a wide range of services including fuel, snacks, and drinks. The station is open 24 hours a day and is conveniently located on the main road.</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Station-service (rated 3.5) open 24 hours with GPS coordinates 33.8776496, 9.804123 in El Hamma?</t>
+          <t>Day Plan:
+Morning: Exploring Restaurant Aziz for a taste of local cuisine
+Mid-Morning: Visiting Cafe Al Barzakh for a refreshing tea break
+Midday: Enjoying a satisfying meal at 30.8 creperie
+Afternoon: Shopping for souvenirs at a local market
+Evening: Relaxing with a drink at Cafe Teatro
+Night: Trying traditional poultry dishes at mlyH@ lHm@ MLIHA</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aziz is a restaurant that offers a variety of delicious dishes, and is located in el hamma. They are open from 08:00-23:00 and are rated 4.0 out of 5 stars based on 5 reviews.
+Cafe Al Barzakh is a Tea Room located in El Hamma, Tunisia. It has a rating of 4.1 based on 12 reviews. The tea room offers a variety of teas and other beverages. It is located at the coordinates (33.8833694, 9.7947312).
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+Cafe Teatro is a 5-star rated cafe located in El Hamma, Tunisia. It offers a cozy and inviting atmosphere with a warm and friendly staff. The cafe serves a variety of drinks, including coffee, tea, and juices, as well as a selection of snacks and pastries. Cafe Teatro is a great place to relax and enjoy a drink with friends or family. It is conveniently located near the city center, making it easy to visit after a day of exploring the city.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Castilia Suites is a 4.5-star hotel located in El Hamma, Tunisia. The hotel offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is located near the city center and is within walking distance of many of the city's attractions.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam located in Chanchou, El Hamma, Tunisia. The hammam offers a variety of services, including traditional hammam treatments, jacuzzi, gommage, and massages. It is also known for its clean and comfortable facilities. The hammam is open daily from 5:00 AM to 8:30 PM and is located at VVWG+243 Hammam Chanchou, Chanchou, El Hamma.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+**Agil El Hamma**
+Agil El Hamma is a renowned gas station located in El Hamma, Tunisia (coordinates: 35.4637138, 7.0834273). Open 24 hours a day, it provides motorists with convenient access to fuel and other services.
+With a rating of 5.0 stars based on customer reviews, Agil El Hamma has consistently impressed clients with its reliable service and exceptional amenities. It is easily accessible from major roads, making it a popular stop for travelers and locals alike.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6465,14 +9072,60 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a relaxing getaway, check out STATION THERMALE CHAIBI. lmHT@ lstshfy'y@ lshyby located at VVVG+R6R STATION THERMALE CHAIBI. lmHT@ lstshfy'y@ lshyby, CHENCHOU, El Hamma. 
-This top-rated destination is perfect for Complexen hotelier lovers and offers a range of Institut de massages to choose from. 
-With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, call them at 98 549 738.</t>
+          <t>STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated destination with a range of massage options and renowned Complexen hotelier services in El Hamma?</t>
+          <t>Day Plan:
+Morning: Explore Hammam jabeur and enjoy its excellent location and potential for relaxation and exploration.
+Mid-Morning: Visit EL MONDO tea room to savor a variety of tea and coffee options while appreciating its cozy atmosphere.
+Midday: Try local cuisine at Restaurant Aziz, known for its delicious dishes and positive reviews.
+Afternoon: Engage in recreational activities at 30.8 Creperie, indulging in their delightful and diverse crepe menu.
+Evening: Experience the vibrant nightlife at Hammam sidi swiid, a bar with high ratings for its lively ambiance.
+Night: Relax with a steamy session at Hammam Chanchou, renowned for its traditional hammam treatments and clean facilities.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aziz is a restaurant that offers a variety of delicious dishes, and is located in el hamma. They are open from 08:00-23:00 and are rated 4.0 out of 5 stars based on 5 reviews.
+EL MONDO is a tea room located in El Hamma, Tunisia. Situated at the coordinates (33.8833694, 9.7947312), it offers a variety of tea and coffee options. Customers have praised the tea room's atmosphere and service, awarding it a 5.0 rating. It is open daily from 9:00 am to 5:00 pm and is easily accessible via Google Maps.
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+Café Berlin is a popular cafe located in El Hamma, Tunisia. The cafe is known for its friendly atmosphere, delicious food, and strong coffee. Café Berlin is a great place to relax and enjoy a meal or a drink with friends. The cafe is located at VQJG+4V7, and it is open from 6:45 AM to 12:45 AM, 7 days a week.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+The Residence Le Jasmin is a hotel located in Oued El Hammam Sousse, and classified as a hotel. Its coordinates are: (35.869776637599, 10.603108765354). It has a 4.1 rating based on 26 reviews.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam located in Chanchou, El Hamma, Tunisia. The hammam offers a variety of services, including traditional hammam treatments, jacuzzi, gommage, and massages. It is also known for its clean and comfortable facilities. The hammam is open daily from 5:00 AM to 8:30 PM and is located at VVWG+243 Hammam Chanchou, Chanchou, El Hamma.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6574,12 +9227,62 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a reliable Station-service, Agil El Hamma is the perfect choice. Located at VRW6+FCR Agil El Hamma, P16, El Hamma, this top-rated spot has a rating of 5.0 and is open 24 hours a day. Its coordinates are (35.4637138, 7.0834273). Agil El Hamma offers a range of categories including Station-service. For more details, visit their website at https://www.google.com/maps/place/Agil+El+Hamma/data=!4m7!3m6!1s0x12559b7fbfea7c8d:0xd8dffa9704b24571!8m2!3d33.8962386!4d9.8110136!16s%2Fg%2F11b6_nfw9v!19sChIJjXzqv3-bVRIRcUWyBJf639g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at</t>
+          <t>**Agil El Hamma**
+Agil El Hamma is a renowned gas station located in El Hamma, Tunisia (coordinates: 35.4637138, 7.0834273). Open 24 hours a day, it provides motorists with convenient access to fuel and other services.
+With a rating of 5.0 stars based on customer reviews, Agil El Hamma has consistently impressed clients with its reliable service and exceptional amenities. It is easily accessible from major roads, making it a popular stop for travelers and locals alike.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated and conveniently located Station-service in El Hamma that offers 24-hour services?</t>
+          <t>Day Plan:
+Morning: Explore L'Étoile d'Or, the renowned restaurant in El Hamma, and savor the flavors prepared by skilled chefs.
+Mid-Morning: Visit Cafe Douar mqh~ ldwr for a variety of cafe beverages and snacks while taking in the vibrant atmosphere.
+Midday: Try local cuisine at Hammem Sidi Abdelkader, a Hammam with excellent ratings and enjoy the relaxing ambiance.
+Afternoon: Shop for souvenirs and local products at the vibrant markets or malls in El Hamma.
+Evening: Take a guided tour of STATION THERMALE CHAIBI, a hotel complex and massage institute, and experience their luxurious amenities.
+Night: Participate in a cultural immersion at mlyH@ lHm@ MLIHA, a restaurant specializing in poultry dishes, and engage with the friendly staff.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover **L'Étoile d'Or,** a renowned restaurant located in El Hamma. Situated at (33.8833694, 9.7947312), this 4.2-star establishment offers a delightful dining experience with its unique offerings. Immerse yourself in the vibrant atmosphere and savor the flavors prepared by the skilled chefs.
+Café Lounge Babali'Za is a teahouse located in El Hamma, Tunisia (coordinates: 33.8776496, 9.804123). It is close to the station of Louage and offers a 24-hour service. Babali'Za has received a 4.4/5 rating based on 9 reviews and is categorized as a teahouse.
+Creperie Nejma, located in El Hamma (Tunisia), is a restaurant that offers a variety of crepes. It is situated at VQMV+3R5 and has a rating of 4.0 based on 4 reviews. Unfortunately, the restaurant's website, phone number, and owner information are not available.
+Cafe Douar mqh~ ldwr is a cafe located in El Hamma, Tunisia, with a rating of 4.0 based on 3 reviews. It is open from 5 AM to midnight every day and offers a variety of cafe beverages and snacks.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+The Residence Le Jasmin is a hotel located in Oued El Hammam Sousse, and classified as a hotel. Its coordinates are: (35.869776637599, 10.603108765354). It has a 4.1 rating based on 26 reviews.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader is a Hammam located in el hamma, Tunisia. It has a rating of 4.5 out of 2 reviews on Google Maps. Its coordinates are (36.8223164, 10.0628018).
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Station Service TotalEnergies EL HAMMA is a gas station located in el hamma, Tunisia. It offers a wide range of services including fuel, snacks, and drinks. The station is open 24 hours a day and is conveniently located on the main road.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6677,14 +9380,60 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for something fun to do, check out station des louages located at station des louages, P16, El Hamma. 
-This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.8894028, 9.8000244. For more details, visit their link at https://www.google.com/maps/place/station+des+louages/data=!4m7!3m6!1s0x12559b9b448c50b9:0xcbcb3d2f66e4241a!8m2!3d33.8893324!4d9.8003762!16s%2Fg%2F12xq2074j!19sChIJuVCMRJubVRIRGiTkZi89y8s?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where in El Hamma can you find a popular destination with a 4.3 rating and a variety of Gare routiere options?</t>
+          <t>Day Plan:
+Morning: Exploring the Medina of El Hamma
+Mid-Morning: Trying local cuisine at mT`m lGmrsny ghomrasni
+Midday: Visiting the Great Mosque of El Hamma
+Afternoon: Enjoying a relaxing hammam experience at Hammam Chanchou
+Evening: Participating in a traditional Tunisian cooking class at Chez Bilel
+Night: Experiencing the vibrant nightlife at Hammam sidi swiid</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mT`m lGmrsny ghomrasni is a restaurant located in mT`m lGmrsny ghomrasni, VQPW+935, El Hamma, Tunisia. The place is owned by mT`m lGmrsny ghomrasni.
+Cafe Al Barzakh is a Tea Room located in El Hamma, Tunisia. It has a rating of 4.1 based on 12 reviews. The tea room offers a variety of teas and other beverages. It is located at the coordinates (33.8833694, 9.7947312).
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+Balsam Palace is a 5-star cafe located in El Hamma, Tunisia. The cafe is open from 6:00 AM to 00:00 AM every day and offers a variety of services, including free WiFi, breakfast, and lunch. The cafe is also conveniently located near several attractions, including the Medina of El Hamma and the Great Mosque of El Hamma.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+The Residence Le Jasmin is a hotel located in Oued El Hammam Sousse, and classified as a hotel. Its coordinates are: (35.869776637599, 10.603108765354). It has a 4.1 rating based on 26 reviews.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam in El Hamma, Tunisia. It is known for its traditional Hammam experience, thermal spring, massage therapy and wellness facilities. Located at (33.81027, 9.87455), it offers a relaxing and rejuvenating experience for visitors and locals alike.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Kiosque hsan is a petrol station located at VQJR+2GF Kiosque hsan, P16, El Hamma, Tunisia, with coordinates (33.8833694, 9.7947312). It offers 24/7 services and has been rated 5.0 stars by one reviewer.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6782,14 +9531,72 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a top-rated Station-service, check out Ala service auto located at VQQW+H63 Ala service auto, Unnamed Road, El Hamma. 
-This destination is perfect for Station-service lovers and offers a range of Station-service to choose from. 
-With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, call them at 24 944 467.</t>
+          <t>Ala service auto is a gas station located in Ala service auto, Unnamed Road, El Hamma, Tunisia. It offers a variety of services to motorists, including fuel, repairs, and maintenance. Ala service auto is conveniently located near major highways and roads, making it easy for customers to access. The gas station is open 24 hours a day, 7 days a week, and offers competitive prices on fuel. Ala service auto also has a team of experienced and certified mechanics who can handle a wide range of repairs and maintenance services.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Station-service with a 3.0 rating in El Hamma?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic streets of El Hamma.
+* Visit Hammam sidi swiid, a highly-rated bar.
+**Mid-Morning:**
+* Try local cuisine at Cafe Bella vita, known for its great dining experience.
+* Take a guided tour of Castilia Suites, a luxury hotel with a swimming pool and fitness center.
+**Midday:**
+* Relax with a massage at STATION THERMALE CHAIBI.
+* Enjoy scenic views at the picturesque Bi'r Shanshu drinking water location.
+**Afternoon:**
+* Engage in outdoor activities like hiking or cycling in the surrounding countryside.
+* Visit the Station des louages for convenient transportation services.
+**Evening:**
+* Participate in a cultural immersion experience at the **mHT@ llwj** transportation company.
+* Take a sightseeing tour of **Hammam jabeur**, a holiday rental with high ratings.
+**Night:**
+* Experience the local nightlife at Chez Bilel fast food restaurant.
+* Enjoy live music and entertainment at EL MONDO tea room.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Chichkhan is a restaurant located in El Hamma, Tunisia. It offers a variety of dishes and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (33.8833694, 9.7947312).
+EL MONDO is a tea room located in El Hamma, Tunisia. Situated at the coordinates (33.8833694, 9.7947312), it offers a variety of tea and coffee options. Customers have praised the tea room's atmosphere and service, awarding it a 5.0 rating. It is open daily from 9:00 am to 5:00 pm and is easily accessible via Google Maps.
+Creperie Nejma, located in El Hamma (Tunisia), is a restaurant that offers a variety of crepes. It is situated at VQMV+3R5 and has a rating of 4.0 based on 4 reviews. Unfortunately, the restaurant's website, phone number, and owner information are not available.
+Cafe Bella vita is located in VQMV+7QX, El Hamma, with the coordinates (18.304732999906, -66.477308015561). This cafe offers a great dining experience with a rating of 5.0 based on 3 reviews.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Castilia Suites is a 4.5-star hotel located in El Hamma, Tunisia. The hotel offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is located near the city center and is within walking distance of many of the city's attractions.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader (36.8223164, 10.0628018) is a hammam located in El Hamma. It has a rating of 4.5 out of 5 based on 2 reviews.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Station Service TotalEnergies EL HAMMA is a gas station located in el hamma, Tunisia. It offers a wide range of services including fuel, snacks, and drinks. The station is open 24 hours a day and is conveniently located on the main road.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6893,10 +9700,64 @@
           <t>el hamma</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.</t>
+        </is>
+      </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>What is the name of the mysterious and elusive destination that is often referred to as "nan" due to its cryptic and enigmatic nature?</t>
+          <t>Day Plan:
+Morning: Explore the bustling atmosphere of El Hamma by visiting the local market for handicrafts and souvenirs.
+Mid-Morning: Try local cuisine at the renowned restaurant L'Étoile d'Or, known for its exquisite dishes and delightful ambiance.
+Midday: Visit the historical Hammam sidi swiid for an immersive experience of traditional Tunisian bathing rituals.
+Afternoon: Relax with a rejuvenating massage at STATION THERMALE CHAIBI, renowned for its therapeutic treatments.
+Evening: Dine at the highly-rated 30.8 Creperie, savoring the delicious flavors of authentic crepes.
+Night: Experience the vibrant nightlife of El Hamma at Chez Bilel, known for its lively atmosphere and delectable fast food.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover **L'Étoile d'Or,** a renowned restaurant located in El Hamma. Situated at (33.8833694, 9.7947312), this 4.2-star establishment offers a delightful dining experience with its unique offerings. Immerse yourself in the vibrant atmosphere and savor the flavors prepared by the skilled chefs.
+EL MONDO is a tea room located in El Hamma, Tunisia. Situated at the coordinates (33.8833694, 9.7947312), it offers a variety of tea and coffee options. Customers have praised the tea room's atmosphere and service, awarding it a 5.0 rating. It is open daily from 9:00 am to 5:00 pm and is easily accessible via Google Maps.
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+Al Naseem is a 4-star rated cafe situated in El Hamma, Tunisia. It is open every day from 5:30 AM to 9:30 PM and is known for its great coffee and service.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader (36.8223164, 10.0628018) is a hammam located in El Hamma. It has a rating of 4.5 out of 5 based on 2 reviews.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+**Agil El Hamma**
+Agil El Hamma is a renowned gas station located in El Hamma, Tunisia (coordinates: 35.4637138, 7.0834273). Open 24 hours a day, it provides motorists with convenient access to fuel and other services.
+With a rating of 5.0 stars based on customer reviews, Agil El Hamma has consistently impressed clients with its reliable service and exceptional amenities. It is easily accessible from major roads, making it a popular stop for travelers and locals alike.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+Station des louages is a bus station located in El Hamma, Tunisia (33.8894028, 9.8000244). It offers various transportation services and is highly rated with a 4.3 out of 5 stars.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6994,12 +9855,60 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a gas station, check out Kiosque hsan located at VQJR+2GF Kiosque hsan, P16, El Hamma. This top-rated gas station is perfect for gas station lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.8833694, 9.7947312.</t>
+          <t>Kiosque hsan is a petrol station located at VQJR+2GF Kiosque hsan, P16, El Hamma, Tunisia, with coordinates (33.8833694, 9.7947312). It offers 24/7 services and has been rated 5.0 stars by one reviewer.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated gas station with 24-hour service in El Hamma?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque town of El Hamma, admiring its historic buildings and vibrant streets.
+Mid-Morning: Visit Hammam Chanchou, indulging in a traditional Hammam experience to rejuvenate and relax.
+Midday: Savor the flavors of El Hamma at mT`m lGmrsny ghomrasni, a renowned restaurant offering authentic Tunisian cuisine.
+Afternoon: Engage in outdoor activities at the scenic Bi'r Shanshu, enjoying a refreshing swim and soaking up the sun.
+Evening: Discover the local culture by visiting the station des louages, interacting with locals and gaining insights into their daily lives.
+Night: Relax with a soothing massage at CHENCHOU, the renowned massage institute located within STATION THERMALE CHAIBI, ending the day on a rejuvenating note.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mT`m lGmrsny ghomrasni is a restaurant located in mT`m lGmrsny ghomrasni, VQPW+935, El Hamma, Tunisia. The place is owned by mT`m lGmrsny ghomrasni.
+EL MONDO is a tea room located in El Hamma, Tunisia. Situated at the coordinates (33.8833694, 9.7947312), it offers a variety of tea and coffee options. Customers have praised the tea room's atmosphere and service, awarding it a 5.0 rating. It is open daily from 9:00 am to 5:00 pm and is easily accessible via Google Maps.
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+Cafe royal is a cafe located in el hamma. It is rated 5.0 by one reviewer and is categorized as a cafe. Its exact location is VQJF+7HP Cafe royal, P16, El Hamma with coordinates (33.8833694, 9.7947312).
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+**Residence Le Jasmin** is a hotel situated in Oued El Hammam, Sousse, Tunisia. The hotel offers a 4.1 rating based on 26 reviews and features a variety of amenities, including free Wi-Fi, parking, and a swimming pool. The hotel is conveniently located in the center of el hamma, close to a variety of shops and restaurants.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam in El Hamma, Tunisia. It is known for its traditional Hammam experience, thermal spring, massage therapy and wellness facilities. Located at (33.81027, 9.87455), it offers a relaxing and rejuvenating experience for visitors and locals alike.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+LIBRAIRIE MOETAZ, a gas station conveniently positioned at VQVX+4CV LIBRAIRIE MOETAZ, Rue IMEM MALEK in El Hamma, offers high-quality fuel and related services. Operating from 7:30 AM to 8:00 PM daily, this station is committed to meeting the needs of its customers. With an impressive rating of 5.0 based on 2 reviews, LIBRAIRIE MOETAZ consistently delivers a positive experience.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7101,14 +10010,62 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a reliable transport company, check out mHT@ llwj located at VQQX+PXX mHT@ llwj, El Hamma. 
-This top-rated destination offers a range of transport services. 
-With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 33.8833694, 9.7947312. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%AD%D8%B7%D8%A9+%D8%A7%D9%84%D9%84%D9%88%D8%A7%D8%AC%E2%80%AD/data=!4m7!3m6!1s0x12559b657bf8ff5b:0x705b53c124b3f73e!8m2!3d33.8893655!4d9.7999891!16s%2Fg%2F11jyz2rpyx!19sChIJW__4e2WbVRIRPvezJMFTW3A?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated transport company open 24/7 in El Hamma?</t>
+          <t>Day Plan:
+Morning: Explore the historical and cultural heritage of el hamma by visiting the Cafe Lounge Babali'Za, known for its authentic teahouse experience.
+Mid-Morning: Indulge in the exquisite flavors of Tunisian cuisine at Restaurant Aziz.
+Midday: Take a refreshing break amidst nature at 30.8 Creperie, savoring their delectable crepes while immersing in the serene ambiance.
+Afternoon: Immerse yourself in the local vibe at Cafe Bella vita, menikmati the warm atmosphere while indulging in their culinary creations.
+Evening: Experience a rejuvenating hammam session at Hammam Chanchou, allowing yourself to unwind and embrace the traditional Hammam culture.
+Night: Conclude your day with a memorable dinner at mlyH@ lHm@ MLIHA, tantalizing your taste buds with their signature poultry dishes.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aziz is a restaurant that offers a variety of delicious dishes, and is located in el hamma. They are open from 08:00-23:00 and are rated 4.0 out of 5 stars based on 5 reviews.
+Café Lounge Babali'Za is a teahouse located in El Hamma, Tunisia (coordinates: 33.8776496, 9.804123). It is close to the station of Louage and offers a 24-hour service. Babali'Za has received a 4.4/5 rating based on 9 reviews and is categorized as a teahouse.
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+Cafe Bella vita is located in VQMV+7QX, El Hamma, with the coordinates (18.304732999906, -66.477308015561). This cafe offers a great dining experience with a rating of 5.0 based on 3 reviews.
+mlyH@ lHm@ MLIHA is a poultry restaurant with a 4-star rating located in El Hamma (coordinates 33.8833694, 9.7947312). It's open 24/7 and has a featured image available through the link https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+The Residence Le Jasmin is a hotel located in Oued El Hammam Sousse, and classified as a hotel. Its coordinates are: (35.869776637599, 10.603108765354). It has a 4.1 rating based on 26 reviews.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammam Chanchou is a popular hammam in El Hamma, Tunisia. It is known for its traditional Hammam experience, thermal spring, massage therapy and wellness facilities. Located at (33.81027, 9.87455), it offers a relaxing and rejuvenating experience for visitors and locals alike.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+**Agil El Hamma**
+Agil El Hamma is a renowned gas station located in El Hamma, Tunisia (coordinates: 35.4637138, 7.0834273). Open 24 hours a day, it provides motorists with convenient access to fuel and other services.
+With a rating of 5.0 stars based on customer reviews, Agil El Hamma has consistently impressed clients with its reliable service and exceptional amenities. It is easily accessible from major roads, making it a popular stop for travelers and locals alike.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7206,12 +10163,62 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a Gare routiere, check out station des louages Located at station des louages, P16, El Hamma. This popular destination has received a rating of 4.3, making it a must-visit spot for Gare routiere enthusiasts. You can get more information on their website at https://www.google.com/maps/place/station+des+louages/data=!4m7!3m6!1s0x12559b9b448c50b9:0xcbcb3d2f66e4241a!8m2!3d33.8893324!4d9.8003762!16s%2Fg%2F12xq2074j!19sChIJuVCMRJubVRIRGiTkZi89y8s?authuser=0&amp;hl=fr&amp;rclk=1 or contact them directly. To get there, use these GPS coordinates: (33.8894028, 9.8000244).</t>
+          <t>The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Where in El Hamma can you find a highly-rated Gare routiere with the GPS coordinates (33.8894028, 9.8000244) and an online presence at https://www.google.com/maps/place/station+des+louages/data=!4m7!3m6!1s0x12559b9b448c50b9:0xcbcb3d2f66e4241a!8m2!3d33.8893324!4d9.8003762!16s%2Fg%2F12xq2074j!19sChIJuVCMRJubVRIRGiTkZi89y8s?authuser=0&amp;hl=fr&amp;rclk=1?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the scenic Bi'r Shanshu, a drinking water location, to quench your thirst and admire the surroundings.
+**Mid-Morning:** Indulge in the local cuisine at Restaurant Chichkhan, known for its diverse menu and 4.0 rating.
+**Midday:** Visit the Hammem Sidi Abdelkader, a historical hammam offering a relaxing and authentic experience.
+**Afternoon:** Engage in outdoor activities at a nearby park or beach, enjoying the sun and fresh air.
+**Evening:** Experience the vibrant atmosphere at Hammam sidi swiid, a 4.8-star rated bar, and connect with locals.
+**Night:** Enjoy scenic views at the Residence Le Jasmin, a hotel nestled in a picturesque location, and relax in its tranquil ambiance.</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Chichkhan is a restaurant located in El Hamma, Tunisia. It offers a variety of dishes and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (33.8833694, 9.7947312).
+Cafe Al Barzakh is a Tea Room located in El Hamma, Tunisia. It has a rating of 4.1 based on 12 reviews. The tea room offers a variety of teas and other beverages. It is located at the coordinates (33.8833694, 9.7947312).
+30.8 Creperie is a highly-rated eatery located in El Hamma, Tunisia. With a focus on crepes, the creperie offers a delicious and diverse menu, earning an impressive 4.6 out of 5 stars from satisfied customers. The establishment operates from 7 AM to 11:30 PM, providing ample opportunities for visitors to enjoy their delectable crepes.
+CaffeAZIZ, located in Chanchou, El Hamma (33.81027, 9.87455), is a cafe that has received a 5-star rating from one reviewer. Unfortunately, there is no further information about its offerings, website, or contact details available.
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+The Residence Le Jasmin is a hotel located in Oued El Hammam Sousse, and classified as a hotel. Its coordinates are: (35.869776637599, 10.603108765354). It has a 4.1 rating based on 26 reviews.
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Hammem Sidi Abdelkader is a Hammam located in el hamma, Tunisia. It has a rating of 4.5 out of 2 reviews on Google Maps. Its coordinates are (36.8223164, 10.0628018).
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+**Agil El Hamma**
+Agil El Hamma is a renowned gas station located in El Hamma, Tunisia (coordinates: 35.4637138, 7.0834273). Open 24 hours a day, it provides motorists with convenient access to fuel and other services.
+With a rating of 5.0 stars based on customer reviews, Agil El Hamma has consistently impressed clients with its reliable service and exceptional amenities. It is easily accessible from major roads, making it a popular stop for travelers and locals alike.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+**mHT@ llwj** is a transportation company located in El Hamma, Tunisia, offering reliable and efficient transportation services. The company is highly rated for its professionalism, punctuality, and affordable pricing, making it a preferred choice for individuals and businesses seeking reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7313,12 +10320,66 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in el hamma and looking for a reliable transportation company, check out mHT@ llwj located at VQQX+PXX mHT@ llwj, El Hamma. This top-rated destination is perfect for those seeking transportation services and offers a range of options to choose from. With a GPS coordinates of (33.8833694, 9.7947312) and a rating of 4.0, it's a must-visit spot for all your transportation needs. It's open 24 hours a day and closed on weekdays. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%AD%D8%B7%D8%A9+%D8%A7%D9%84%D9%84%D9%88%D8%A7%D8%AC%E2%80%AD/data=!4m7!3m6!1s0x12559b657bf8ff5b:0x705b53c124b3f73e!8m2!3d33.8893655!4d9.7999891!16s%2Fg%2F11jyz2rpyx!19sChIJW__4e2WbVRIRPvezJMFTW3A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at (if available).</t>
+          <t>This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated transportation company with convenient access and a range of options in the El Hamma area?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the vibrant streets and markets of El Hamma.
+**Mid-Morning:**
+* Indulge in a delightful breakfast and local cuisine at 30.8 creperie, renowned for its wide range of crepes and warm ambiance.
+**Midday:**
+* Visit the Hammam Chanchou for a rejuvenating experience, including a jacuzzi, massage, and gommage.
+**Afternoon:**
+* Wander through the historical El Hamma and discover the intricate Hammam sidi swiid, a highly-rated bar with a warm and welcoming atmosphere.
+**Evening:**
+* Experience the culinary delights of El Hamma at L'Étoile d'Or, a 4.2-star establishment offering a unique dining experience with delectable offerings.
+**Night:**
+* Unwind and relax at STATION THERMALE CHAIBI, a hotel complex and massage institute, for a soothing massage and a restful night's sleep.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover **L'Étoile d'Or,** a renowned restaurant located in El Hamma. Situated at (33.8833694, 9.7947312), this 4.2-star establishment offers a delightful dining experience with its unique offerings. Immerse yourself in the vibrant atmosphere and savor the flavors prepared by the skilled chefs.
+EL MONDO is a tea room located in El Hamma, Tunisia. Situated at the coordinates (33.8833694, 9.7947312), it offers a variety of tea and coffee options. Customers have praised the tea room's atmosphere and service, awarding it a 5.0 rating. It is open daily from 9:00 am to 5:00 pm and is easily accessible via Google Maps.
+Located in El Hamma, 30.8 creperie offers a wide range of crepes to satisfy your cravings. Rated 4.6 stars, it's a popular spot with locals and tourists alike. Open daily from 7:00 AM to 11:30 PM, you can enjoy breakfast, lunch, or dinner here. The restaurant is conveniently located at the coordinates (33.8833694, 9.7947312), making it easy to find.
+Cafe royal is a cafe located in el hamma. It is rated 5.0 by one reviewer and is categorized as a cafe. Its exact location is VQJF+7HP Cafe royal, P16, El Hamma with coordinates (33.8833694, 9.7947312).
+mlyH@ lHm@ MLIHA is a restaurant specialized in poultry dishes, located in El Hamma, Tunisia, at the coordinates (33.8833694, 9.7947312). It is open 24 hours a day and is highly rated by customers, with a rating of 4.0 out of 5 based on one review. The restaurant has a featured image available, which can be viewed at https://lh5.googleusercontent.com/p/AF1QipNxfcngBojU46KtU4nvR3QSKVISAB01kRxMWwKz=w408-h544-k-no.
+Residence Le Jasmin is a 4.1 stars hotel situated in el hamma (Tunisia) and located at (35.869776637599, 10.603108765354).
+**Hammam jabeur** is a holiday rental located in El Hamma, Tunisia, offering comfortable accommodations for tourists and travelers. It boasts a high rating, receiving 5.0 stars from guests. Despite lacking a website and detailed reviews, the rental is notable for its excellent location and potential for relaxation and exploration.
+Located in Chanchou, el hamma, Hammam Chanchou is a popular Hammam offering a rejuvenating experience. It's open from 5 am to 8:30 pm, providing a wide range of services including jacuzzi, massage, and gommage. The Hammam has received 141 reviews, averaging a 4.0 rating. It features mineral-rich waters, separate chambers for men and women, and prayer facilities. Hammam Chanchou is known for its affordable pricing, cleanliness, and relaxing atmosphere.
+Bi'r Shanshu is a drinking water location situated in El Hamma, Tunisia. It has received a 4.0 rating based on one review and offers drinking water as its main service. Its exact coordinates are (33.89049, 9.88881).
+Hammam sidi swiid is a 4.8-star rated bar located in El Hamma, Tunisia. It is close to VQHW+378 Hammam sidi swiid and is in the category of Bar.
+Chez Bilel is a fast food restaurant located in El Hamma, Tunisia. The restaurant is known for its delicious food and friendly service. It is a great place to grab a quick bite to eat or to enjoy a meal with friends and family. Chez Bilel is located at (33.8833694, 9.7947312).
+Kiosque hsan is a petrol station located at VQJR+2GF Kiosque hsan, P16, El Hamma, Tunisia, with coordinates (33.8833694, 9.7947312). It offers 24/7 services and has been rated 5.0 stars by one reviewer.
+STATION THERMALE CHAIBI is a hotel complex and massage institute located in CHENCHOU, El Hamma, Tunisia. It is situated at coordinates (33.8833694, 9.7947312), making it a great location for tourists and locals alike.
+The station des louages, located at 33.8894028, 9.8000244 in el hamma, Tunisia, is a bus station that offers transportation services to various destinations. It has received positive reviews with an average rating of 4.3, indicating a satisfactory level of service.
+This place, located in El Hamma, Tunisia (33.8833694, 9.7947312), is a transportation company known as mHT@ llwj. It offers 24-hour freight services, making it a convenient choice for businesses and individuals needing reliable transportation solutions.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
